--- a/config_1.19/shoping_config_cjj.xlsx
+++ b/config_1.19/shoping_config_cjj.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_1.12\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_1.19\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="tge|标签配置" sheetId="6" r:id="rId1"/>
@@ -9259,8 +9259,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9408,7 +9408,9 @@
       <c r="D2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="2"/>
+      <c r="F2" s="2">
+        <v>10330</v>
+      </c>
       <c r="G2" s="2">
         <v>10330</v>
       </c>
@@ -9489,7 +9491,9 @@
       <c r="D3" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F3" s="2"/>
+      <c r="F3" s="2">
+        <v>85</v>
+      </c>
       <c r="G3" s="2">
         <v>85</v>
       </c>
@@ -9570,7 +9574,9 @@
       <c r="D4" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="2"/>
+      <c r="F4" s="2">
+        <v>86</v>
+      </c>
       <c r="G4" s="2">
         <v>86</v>
       </c>
@@ -9651,7 +9657,9 @@
       <c r="D5" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="2"/>
+      <c r="F5" s="2">
+        <v>87</v>
+      </c>
       <c r="G5" s="2">
         <v>87</v>
       </c>
@@ -9732,7 +9740,9 @@
       <c r="D6" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F6" s="2"/>
+      <c r="F6" s="2">
+        <v>88</v>
+      </c>
       <c r="G6" s="2">
         <v>88</v>
       </c>
@@ -9813,7 +9823,9 @@
       <c r="D7" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="2"/>
+      <c r="F7" s="2">
+        <v>89</v>
+      </c>
       <c r="G7" s="2">
         <v>89</v>
       </c>
@@ -9894,7 +9906,9 @@
       <c r="D8" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F8" s="2"/>
+      <c r="F8" s="2">
+        <v>109</v>
+      </c>
       <c r="G8" s="2">
         <v>109</v>
       </c>
@@ -9975,7 +9989,9 @@
       <c r="D9" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F9" s="2"/>
+      <c r="F9" s="2">
+        <v>10044</v>
+      </c>
       <c r="G9" s="2">
         <v>10044</v>
       </c>
@@ -10057,6 +10073,9 @@
         <v>42</v>
       </c>
       <c r="E10" s="23"/>
+      <c r="F10" s="11">
+        <v>10045</v>
+      </c>
       <c r="G10" s="11">
         <v>10045</v>
       </c>
@@ -10140,6 +10159,9 @@
       <c r="E11" s="23" t="s">
         <v>68</v>
       </c>
+      <c r="F11" s="11">
+        <v>90</v>
+      </c>
       <c r="G11" s="11">
         <v>90</v>
       </c>
@@ -11125,6 +11147,9 @@
         <v>42</v>
       </c>
       <c r="E24" s="23"/>
+      <c r="F24" s="11">
+        <v>10189</v>
+      </c>
       <c r="G24" s="11">
         <v>10189</v>
       </c>
@@ -11204,11 +11229,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN520"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="M505" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="7" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q520" sqref="Q520"/>
+      <selection pane="bottomRight" activeCell="F67" sqref="F67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -15062,7 +15087,7 @@
         <v>2</v>
       </c>
       <c r="F67" s="81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G67" s="81" t="s">
         <v>234</v>
@@ -15121,7 +15146,7 @@
         <v>3</v>
       </c>
       <c r="F68" s="81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G68" s="81" t="s">
         <v>236</v>
@@ -15180,7 +15205,7 @@
         <v>4</v>
       </c>
       <c r="F69" s="81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G69" s="81" t="s">
         <v>238</v>
@@ -15239,7 +15264,7 @@
         <v>5</v>
       </c>
       <c r="F70" s="81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G70" s="81" t="s">
         <v>240</v>
@@ -15298,7 +15323,7 @@
         <v>6</v>
       </c>
       <c r="F71" s="81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G71" s="81" t="s">
         <v>241</v>
@@ -16648,7 +16673,7 @@
         <v>109</v>
       </c>
       <c r="F94" s="85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G94" s="85" t="s">
         <v>265</v>
@@ -18682,7 +18707,7 @@
         <v>108</v>
       </c>
       <c r="F128" s="85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G128" s="85" t="s">
         <v>331</v>
@@ -18741,7 +18766,7 @@
         <v>110</v>
       </c>
       <c r="F129" s="85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G129" s="85" t="s">
         <v>530</v>
@@ -28044,7 +28069,7 @@
         <v>111</v>
       </c>
       <c r="F273" s="85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G273" s="85" t="s">
         <v>533</v>
@@ -37493,7 +37518,7 @@
         <v>1</v>
       </c>
       <c r="F414" s="81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G414" s="81" t="s">
         <v>1242</v>

--- a/config_1.19/shoping_config_cjj.xlsx
+++ b/config_1.19/shoping_config_cjj.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="tge|标签配置" sheetId="6" r:id="rId1"/>
@@ -8516,7 +8516,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8577,6 +8577,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -8620,7 +8632,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -8785,6 +8797,33 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="11" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="12" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -11219,11 +11258,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN532"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="M503" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="7" ySplit="1" topLeftCell="H505" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G526" sqref="G526"/>
+      <selection pane="bottomRight" activeCell="A511" sqref="A511"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -36826,7 +36865,7 @@
         <v>10324</v>
       </c>
       <c r="F408" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G408" s="5" t="s">
         <v>1224</v>
@@ -36891,7 +36930,7 @@
         <v>10325</v>
       </c>
       <c r="F409" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G409" s="5" t="s">
         <v>1225</v>
@@ -36956,7 +36995,7 @@
         <v>10326</v>
       </c>
       <c r="F410" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G410" s="5" t="s">
         <v>1226</v>
@@ -37021,7 +37060,7 @@
         <v>10327</v>
       </c>
       <c r="F411" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G411" s="5" t="s">
         <v>1227</v>
@@ -37086,7 +37125,7 @@
         <v>10328</v>
       </c>
       <c r="F412" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G412" s="5" t="s">
         <v>1228</v>
@@ -37151,7 +37190,7 @@
         <v>10329</v>
       </c>
       <c r="F413" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G413" s="5" t="s">
         <v>1229</v>
@@ -37208,62 +37247,62 @@
         <v>1</v>
       </c>
     </row>
-    <row r="414" spans="1:39" s="47" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A414" s="47">
+    <row r="414" spans="1:39" s="55" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A414" s="55">
         <v>413</v>
       </c>
-      <c r="B414" s="47">
+      <c r="B414" s="55">
         <v>10330</v>
       </c>
-      <c r="D414" s="47">
-        <v>1</v>
-      </c>
-      <c r="F414" s="47">
-        <v>1</v>
-      </c>
-      <c r="G414" s="47" t="s">
+      <c r="D414" s="55">
+        <v>1</v>
+      </c>
+      <c r="F414" s="55">
+        <v>1</v>
+      </c>
+      <c r="G414" s="55" t="s">
         <v>1242</v>
       </c>
-      <c r="H414" s="5" t="s">
+      <c r="H414" s="56" t="s">
         <v>1570</v>
       </c>
-      <c r="L414" s="47">
+      <c r="L414" s="55">
         <v>-4</v>
       </c>
-      <c r="M414" s="47">
-        <v>0</v>
-      </c>
-      <c r="N414" s="47">
-        <v>0</v>
-      </c>
-      <c r="O414" s="47" t="s">
+      <c r="M414" s="55">
+        <v>0</v>
+      </c>
+      <c r="N414" s="55">
+        <v>0</v>
+      </c>
+      <c r="O414" s="55" t="s">
         <v>112</v>
       </c>
-      <c r="P414" s="47">
+      <c r="P414" s="55">
         <v>600</v>
       </c>
-      <c r="Q414" s="47" t="s">
+      <c r="Q414" s="55" t="s">
         <v>89</v>
       </c>
-      <c r="R414" s="10" t="s">
+      <c r="R414" s="57" t="s">
         <v>1794</v>
       </c>
-      <c r="W414" s="47" t="s">
+      <c r="W414" s="55" t="s">
         <v>540</v>
       </c>
-      <c r="X414" s="48" t="s">
+      <c r="X414" s="58" t="s">
         <v>120</v>
       </c>
-      <c r="Y414" s="49">
-        <v>0</v>
-      </c>
-      <c r="Z414" s="47">
+      <c r="Y414" s="59">
+        <v>0</v>
+      </c>
+      <c r="Z414" s="55">
         <v>2552233600</v>
       </c>
-      <c r="AH414" s="47">
-        <v>1</v>
-      </c>
-      <c r="AI414" s="47">
+      <c r="AH414" s="55">
+        <v>1</v>
+      </c>
+      <c r="AI414" s="55">
         <v>1</v>
       </c>
     </row>
@@ -37275,7 +37314,7 @@
         <v>10331</v>
       </c>
       <c r="F415" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G415" s="5" t="s">
         <v>1248</v>
@@ -37343,7 +37382,7 @@
         <v>10332</v>
       </c>
       <c r="F416" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G416" s="5" t="s">
         <v>1259</v>
@@ -37413,7 +37452,7 @@
       <c r="D417" s="47"/>
       <c r="E417" s="47"/>
       <c r="F417" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G417" s="5" t="s">
         <v>1262</v>
@@ -37483,7 +37522,7 @@
       <c r="D418" s="47"/>
       <c r="E418" s="47"/>
       <c r="F418" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G418" s="5" t="s">
         <v>1263</v>
@@ -37551,7 +37590,7 @@
         <v>10335</v>
       </c>
       <c r="F419" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G419" s="5" t="s">
         <v>1259</v>
@@ -37619,7 +37658,7 @@
         <v>10336</v>
       </c>
       <c r="F420" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G420" s="5" t="s">
         <v>1251</v>
@@ -37679,71 +37718,71 @@
         <v>1</v>
       </c>
     </row>
-    <row r="421" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A421" s="5">
+    <row r="421" spans="1:39" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A421" s="60">
         <v>420</v>
       </c>
-      <c r="B421" s="5">
+      <c r="B421" s="60">
         <v>10337</v>
       </c>
-      <c r="F421" s="5">
-        <v>1</v>
-      </c>
-      <c r="G421" s="5" t="s">
+      <c r="F421" s="60">
+        <v>1</v>
+      </c>
+      <c r="G421" s="60" t="s">
         <v>1265</v>
       </c>
-      <c r="J421" s="5" t="s">
+      <c r="J421" s="60" t="s">
         <v>1266</v>
       </c>
-      <c r="L421" s="5">
+      <c r="L421" s="60">
         <v>-31</v>
       </c>
-      <c r="M421" s="5">
-        <v>0</v>
-      </c>
-      <c r="N421" s="5">
-        <v>0</v>
-      </c>
-      <c r="O421" s="5" t="s">
+      <c r="M421" s="60">
+        <v>0</v>
+      </c>
+      <c r="N421" s="60">
+        <v>0</v>
+      </c>
+      <c r="O421" s="60" t="s">
         <v>1267</v>
       </c>
-      <c r="P421" s="5">
+      <c r="P421" s="60">
         <v>1000</v>
       </c>
-      <c r="Q421" s="5" t="s">
+      <c r="Q421" s="60" t="s">
         <v>1268</v>
       </c>
-      <c r="R421" s="10" t="s">
+      <c r="R421" s="61" t="s">
         <v>1269</v>
       </c>
-      <c r="W421" s="5" t="s">
+      <c r="W421" s="60" t="s">
         <v>1253</v>
       </c>
-      <c r="X421" s="5">
+      <c r="X421" s="60">
         <v>9999999</v>
       </c>
-      <c r="Y421" s="5">
+      <c r="Y421" s="60">
         <v>1585609200</v>
       </c>
-      <c r="Z421" s="5">
+      <c r="Z421" s="60">
         <v>2552233600</v>
       </c>
-      <c r="AB421" s="5" t="s">
+      <c r="AB421" s="60" t="s">
         <v>1270</v>
       </c>
-      <c r="AC421" s="5" t="s">
+      <c r="AC421" s="60" t="s">
         <v>1271</v>
       </c>
-      <c r="AH421" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI421" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL421" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM421" s="5">
+      <c r="AH421" s="60">
+        <v>1</v>
+      </c>
+      <c r="AI421" s="60">
+        <v>1</v>
+      </c>
+      <c r="AL421" s="60">
+        <v>1</v>
+      </c>
+      <c r="AM421" s="60">
         <v>1</v>
       </c>
     </row>
@@ -37755,7 +37794,7 @@
         <v>10338</v>
       </c>
       <c r="F422" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G422" s="5" t="s">
         <v>1272</v>
@@ -37823,7 +37862,7 @@
         <v>10339</v>
       </c>
       <c r="F423" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G423" s="5" t="s">
         <v>1277</v>
@@ -37891,7 +37930,7 @@
         <v>10340</v>
       </c>
       <c r="F424" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G424" s="5" t="s">
         <v>1282</v>
@@ -37951,555 +37990,555 @@
         <v>1</v>
       </c>
     </row>
-    <row r="425" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A425" s="5">
+    <row r="425" spans="1:39" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A425" s="60">
         <v>424</v>
       </c>
-      <c r="B425" s="5">
+      <c r="B425" s="60">
         <v>10341</v>
       </c>
-      <c r="F425" s="5">
-        <v>1</v>
-      </c>
-      <c r="G425" s="5" t="s">
+      <c r="F425" s="60">
+        <v>1</v>
+      </c>
+      <c r="G425" s="60" t="s">
         <v>1286</v>
       </c>
-      <c r="J425" s="5" t="s">
+      <c r="J425" s="60" t="s">
         <v>1287</v>
       </c>
-      <c r="L425" s="5">
+      <c r="L425" s="60">
         <v>-31</v>
       </c>
-      <c r="M425" s="5">
-        <v>0</v>
-      </c>
-      <c r="N425" s="5">
-        <v>0</v>
-      </c>
-      <c r="O425" s="5" t="s">
+      <c r="M425" s="60">
+        <v>0</v>
+      </c>
+      <c r="N425" s="60">
+        <v>0</v>
+      </c>
+      <c r="O425" s="60" t="s">
         <v>112</v>
       </c>
-      <c r="P425" s="5">
+      <c r="P425" s="60">
         <v>49800</v>
       </c>
-      <c r="Q425" s="5" t="s">
+      <c r="Q425" s="60" t="s">
         <v>1254</v>
       </c>
-      <c r="R425" s="10" t="s">
+      <c r="R425" s="61" t="s">
         <v>1288</v>
       </c>
-      <c r="W425" s="5" t="s">
+      <c r="W425" s="60" t="s">
         <v>1281</v>
       </c>
-      <c r="X425" s="5">
+      <c r="X425" s="60">
         <v>9999999</v>
       </c>
-      <c r="Y425" s="5">
+      <c r="Y425" s="60">
         <v>1585609200</v>
       </c>
-      <c r="Z425" s="5">
+      <c r="Z425" s="60">
         <v>2552233600</v>
       </c>
-      <c r="AH425" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI425" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="426" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A426" s="5">
+      <c r="AH425" s="60">
+        <v>1</v>
+      </c>
+      <c r="AI425" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="426" spans="1:39" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A426" s="60">
         <v>425</v>
       </c>
-      <c r="B426" s="5">
+      <c r="B426" s="60">
         <v>10342</v>
       </c>
-      <c r="F426" s="5">
-        <v>1</v>
-      </c>
-      <c r="G426" s="5" t="s">
+      <c r="F426" s="60">
+        <v>1</v>
+      </c>
+      <c r="G426" s="60" t="s">
         <v>1289</v>
       </c>
-      <c r="J426" s="5" t="s">
+      <c r="J426" s="60" t="s">
         <v>1290</v>
       </c>
-      <c r="L426" s="5">
+      <c r="L426" s="60">
         <v>-31</v>
       </c>
-      <c r="M426" s="5">
-        <v>0</v>
-      </c>
-      <c r="N426" s="5">
-        <v>0</v>
-      </c>
-      <c r="O426" s="5" t="s">
+      <c r="M426" s="60">
+        <v>0</v>
+      </c>
+      <c r="N426" s="60">
+        <v>0</v>
+      </c>
+      <c r="O426" s="60" t="s">
         <v>112</v>
       </c>
-      <c r="P426" s="5">
+      <c r="P426" s="60">
         <v>19800</v>
       </c>
-      <c r="Q426" s="5" t="s">
+      <c r="Q426" s="60" t="s">
         <v>1291</v>
       </c>
-      <c r="R426" s="10" t="s">
+      <c r="R426" s="61" t="s">
         <v>1255</v>
       </c>
-      <c r="W426" s="5" t="s">
+      <c r="W426" s="60" t="s">
         <v>1281</v>
       </c>
-      <c r="X426" s="5">
+      <c r="X426" s="60">
         <v>9999999</v>
       </c>
-      <c r="Y426" s="5">
+      <c r="Y426" s="60">
         <v>1585609200</v>
       </c>
-      <c r="Z426" s="5">
+      <c r="Z426" s="60">
         <v>2552233600</v>
       </c>
-      <c r="AH426" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI426" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="427" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A427" s="5">
+      <c r="AH426" s="60">
+        <v>1</v>
+      </c>
+      <c r="AI426" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="427" spans="1:39" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A427" s="60">
         <v>426</v>
       </c>
-      <c r="B427" s="5">
+      <c r="B427" s="60">
         <v>10343</v>
       </c>
-      <c r="F427" s="5">
-        <v>1</v>
-      </c>
-      <c r="G427" s="5" t="s">
+      <c r="F427" s="60">
+        <v>1</v>
+      </c>
+      <c r="G427" s="60" t="s">
         <v>1292</v>
       </c>
-      <c r="J427" s="5" t="s">
+      <c r="J427" s="60" t="s">
         <v>1293</v>
       </c>
-      <c r="L427" s="5">
+      <c r="L427" s="60">
         <v>-31</v>
       </c>
-      <c r="M427" s="5">
-        <v>0</v>
-      </c>
-      <c r="N427" s="5">
-        <v>0</v>
-      </c>
-      <c r="O427" s="5" t="s">
+      <c r="M427" s="60">
+        <v>0</v>
+      </c>
+      <c r="N427" s="60">
+        <v>0</v>
+      </c>
+      <c r="O427" s="60" t="s">
         <v>112</v>
       </c>
-      <c r="P427" s="5">
+      <c r="P427" s="60">
         <v>9800</v>
       </c>
-      <c r="Q427" s="5" t="s">
+      <c r="Q427" s="60" t="s">
         <v>1294</v>
       </c>
-      <c r="R427" s="10" t="s">
+      <c r="R427" s="61" t="s">
         <v>1288</v>
       </c>
-      <c r="W427" s="5" t="s">
+      <c r="W427" s="60" t="s">
         <v>1281</v>
       </c>
-      <c r="X427" s="5">
+      <c r="X427" s="60">
         <v>9999999</v>
       </c>
-      <c r="Y427" s="5">
+      <c r="Y427" s="60">
         <v>1585609200</v>
       </c>
-      <c r="Z427" s="5">
+      <c r="Z427" s="60">
         <v>2552233600</v>
       </c>
-      <c r="AH427" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI427" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="428" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A428" s="5">
+      <c r="AH427" s="60">
+        <v>1</v>
+      </c>
+      <c r="AI427" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="428" spans="1:39" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A428" s="60">
         <v>427</v>
       </c>
-      <c r="B428" s="5">
+      <c r="B428" s="60">
         <v>10344</v>
       </c>
-      <c r="F428" s="5">
-        <v>1</v>
-      </c>
-      <c r="G428" s="5" t="s">
+      <c r="F428" s="60">
+        <v>1</v>
+      </c>
+      <c r="G428" s="60" t="s">
         <v>1295</v>
       </c>
-      <c r="J428" s="5" t="s">
+      <c r="J428" s="60" t="s">
         <v>1296</v>
       </c>
-      <c r="L428" s="5">
+      <c r="L428" s="60">
         <v>-31</v>
       </c>
-      <c r="M428" s="5">
-        <v>0</v>
-      </c>
-      <c r="N428" s="5">
-        <v>0</v>
-      </c>
-      <c r="O428" s="5" t="s">
+      <c r="M428" s="60">
+        <v>0</v>
+      </c>
+      <c r="N428" s="60">
+        <v>0</v>
+      </c>
+      <c r="O428" s="60" t="s">
         <v>112</v>
       </c>
-      <c r="P428" s="5">
+      <c r="P428" s="60">
         <v>9800</v>
       </c>
-      <c r="Q428" s="5" t="s">
+      <c r="Q428" s="60" t="s">
         <v>1297</v>
       </c>
-      <c r="R428" s="10" t="s">
+      <c r="R428" s="61" t="s">
         <v>1255</v>
       </c>
-      <c r="W428" s="5" t="s">
+      <c r="W428" s="60" t="s">
         <v>1281</v>
       </c>
-      <c r="X428" s="5">
+      <c r="X428" s="60">
         <v>9999999</v>
       </c>
-      <c r="Y428" s="5">
+      <c r="Y428" s="60">
         <v>1585609200</v>
       </c>
-      <c r="Z428" s="5">
+      <c r="Z428" s="60">
         <v>2552233600</v>
       </c>
-      <c r="AH428" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI428" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="429" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A429" s="5">
+      <c r="AH428" s="60">
+        <v>1</v>
+      </c>
+      <c r="AI428" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="429" spans="1:39" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A429" s="60">
         <v>428</v>
       </c>
-      <c r="B429" s="5">
+      <c r="B429" s="60">
         <v>10345</v>
       </c>
-      <c r="F429" s="5">
-        <v>1</v>
-      </c>
-      <c r="G429" s="5" t="s">
+      <c r="F429" s="60">
+        <v>1</v>
+      </c>
+      <c r="G429" s="60" t="s">
         <v>1298</v>
       </c>
-      <c r="J429" s="5" t="s">
+      <c r="J429" s="60" t="s">
         <v>1299</v>
       </c>
-      <c r="L429" s="5">
+      <c r="L429" s="60">
         <v>-31</v>
       </c>
-      <c r="M429" s="5">
-        <v>0</v>
-      </c>
-      <c r="N429" s="5">
-        <v>0</v>
-      </c>
-      <c r="O429" s="5" t="s">
+      <c r="M429" s="60">
+        <v>0</v>
+      </c>
+      <c r="N429" s="60">
+        <v>0</v>
+      </c>
+      <c r="O429" s="60" t="s">
         <v>112</v>
       </c>
-      <c r="P429" s="5">
+      <c r="P429" s="60">
         <v>4800</v>
       </c>
-      <c r="Q429" s="5" t="s">
+      <c r="Q429" s="60" t="s">
         <v>1300</v>
       </c>
-      <c r="R429" s="10" t="s">
+      <c r="R429" s="61" t="s">
         <v>1255</v>
       </c>
-      <c r="W429" s="5" t="s">
+      <c r="W429" s="60" t="s">
         <v>1281</v>
       </c>
-      <c r="X429" s="5">
+      <c r="X429" s="60">
         <v>9999999</v>
       </c>
-      <c r="Y429" s="5">
+      <c r="Y429" s="60">
         <v>1585609200</v>
       </c>
-      <c r="Z429" s="5">
+      <c r="Z429" s="60">
         <v>2552233600</v>
       </c>
-      <c r="AH429" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI429" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="430" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A430" s="5">
+      <c r="AH429" s="60">
+        <v>1</v>
+      </c>
+      <c r="AI429" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="430" spans="1:39" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A430" s="60">
         <v>429</v>
       </c>
-      <c r="B430" s="5">
+      <c r="B430" s="60">
         <v>10346</v>
       </c>
-      <c r="F430" s="5">
-        <v>1</v>
-      </c>
-      <c r="G430" s="5" t="s">
+      <c r="F430" s="60">
+        <v>1</v>
+      </c>
+      <c r="G430" s="60" t="s">
         <v>1555</v>
       </c>
-      <c r="I430" s="5" t="s">
+      <c r="I430" s="60" t="s">
         <v>1513</v>
       </c>
-      <c r="J430" s="5" t="s">
+      <c r="J430" s="60" t="s">
         <v>1556</v>
       </c>
-      <c r="L430" s="5">
+      <c r="L430" s="60">
         <v>-28</v>
       </c>
-      <c r="M430" s="5">
-        <v>0</v>
-      </c>
-      <c r="N430" s="5">
-        <v>0</v>
-      </c>
-      <c r="O430" s="5" t="s">
+      <c r="M430" s="60">
+        <v>0</v>
+      </c>
+      <c r="N430" s="60">
+        <v>0</v>
+      </c>
+      <c r="O430" s="60" t="s">
         <v>112</v>
       </c>
-      <c r="P430" s="5">
+      <c r="P430" s="60">
         <v>100</v>
       </c>
-      <c r="Q430" s="5" t="s">
+      <c r="Q430" s="60" t="s">
         <v>1247</v>
       </c>
-      <c r="R430" s="10" t="s">
+      <c r="R430" s="61" t="s">
         <v>1558</v>
       </c>
-      <c r="W430" s="5" t="s">
+      <c r="W430" s="60" t="s">
         <v>1124</v>
       </c>
-      <c r="X430" s="5">
+      <c r="X430" s="60">
         <v>9999999</v>
       </c>
-      <c r="Y430" s="5">
+      <c r="Y430" s="60">
         <v>1581377400</v>
       </c>
-      <c r="Z430" s="5">
+      <c r="Z430" s="60">
         <v>2552233600</v>
       </c>
-      <c r="AA430" s="5">
+      <c r="AA430" s="60">
         <v>14</v>
       </c>
-      <c r="AH430" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI430" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL430" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM430" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="431" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A431" s="5">
+      <c r="AH430" s="60">
+        <v>1</v>
+      </c>
+      <c r="AI430" s="60">
+        <v>1</v>
+      </c>
+      <c r="AL430" s="60">
+        <v>1</v>
+      </c>
+      <c r="AM430" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="431" spans="1:39" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A431" s="60">
         <v>430</v>
       </c>
-      <c r="B431" s="5">
+      <c r="B431" s="60">
         <v>10347</v>
       </c>
-      <c r="F431" s="5">
-        <v>1</v>
-      </c>
-      <c r="G431" s="5" t="s">
+      <c r="F431" s="60">
+        <v>1</v>
+      </c>
+      <c r="G431" s="60" t="s">
         <v>1555</v>
       </c>
-      <c r="I431" s="5" t="s">
+      <c r="I431" s="60" t="s">
         <v>1514</v>
       </c>
-      <c r="J431" s="5" t="s">
+      <c r="J431" s="60" t="s">
         <v>1552</v>
       </c>
-      <c r="L431" s="5">
+      <c r="L431" s="60">
         <v>-28</v>
       </c>
-      <c r="M431" s="5">
-        <v>0</v>
-      </c>
-      <c r="N431" s="5">
-        <v>0</v>
-      </c>
-      <c r="O431" s="5" t="s">
+      <c r="M431" s="60">
+        <v>0</v>
+      </c>
+      <c r="N431" s="60">
+        <v>0</v>
+      </c>
+      <c r="O431" s="60" t="s">
         <v>112</v>
       </c>
-      <c r="P431" s="5">
+      <c r="P431" s="60">
         <v>300</v>
       </c>
-      <c r="Q431" s="5" t="s">
+      <c r="Q431" s="60" t="s">
         <v>1247</v>
       </c>
-      <c r="R431" s="10" t="s">
+      <c r="R431" s="61" t="s">
         <v>1559</v>
       </c>
-      <c r="W431" s="5" t="s">
+      <c r="W431" s="60" t="s">
         <v>543</v>
       </c>
-      <c r="X431" s="5">
+      <c r="X431" s="60">
         <v>9999999</v>
       </c>
-      <c r="Y431" s="5">
+      <c r="Y431" s="60">
         <v>1581377400</v>
       </c>
-      <c r="Z431" s="5">
+      <c r="Z431" s="60">
         <v>2552233600</v>
       </c>
-      <c r="AA431" s="5">
+      <c r="AA431" s="60">
         <v>14</v>
       </c>
-      <c r="AH431" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI431" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL431" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM431" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="432" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A432" s="5">
+      <c r="AH431" s="60">
+        <v>1</v>
+      </c>
+      <c r="AI431" s="60">
+        <v>1</v>
+      </c>
+      <c r="AL431" s="60">
+        <v>1</v>
+      </c>
+      <c r="AM431" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="432" spans="1:39" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A432" s="60">
         <v>431</v>
       </c>
-      <c r="B432" s="5">
+      <c r="B432" s="60">
         <v>10348</v>
       </c>
-      <c r="F432" s="5">
-        <v>1</v>
-      </c>
-      <c r="G432" s="5" t="s">
+      <c r="F432" s="60">
+        <v>1</v>
+      </c>
+      <c r="G432" s="60" t="s">
         <v>1555</v>
       </c>
-      <c r="I432" s="5" t="s">
+      <c r="I432" s="60" t="s">
         <v>1515</v>
       </c>
-      <c r="J432" s="5" t="s">
+      <c r="J432" s="60" t="s">
         <v>1553</v>
       </c>
-      <c r="L432" s="5">
+      <c r="L432" s="60">
         <v>-28</v>
       </c>
-      <c r="M432" s="5">
-        <v>0</v>
-      </c>
-      <c r="N432" s="5">
-        <v>0</v>
-      </c>
-      <c r="O432" s="5" t="s">
+      <c r="M432" s="60">
+        <v>0</v>
+      </c>
+      <c r="N432" s="60">
+        <v>0</v>
+      </c>
+      <c r="O432" s="60" t="s">
         <v>112</v>
       </c>
-      <c r="P432" s="5">
+      <c r="P432" s="60">
         <v>600</v>
       </c>
-      <c r="Q432" s="5" t="s">
+      <c r="Q432" s="60" t="s">
         <v>1247</v>
       </c>
-      <c r="R432" s="10" t="s">
+      <c r="R432" s="61" t="s">
         <v>1521</v>
       </c>
-      <c r="W432" s="5" t="s">
+      <c r="W432" s="60" t="s">
         <v>543</v>
       </c>
-      <c r="X432" s="5">
+      <c r="X432" s="60">
         <v>9999999</v>
       </c>
-      <c r="Y432" s="5">
+      <c r="Y432" s="60">
         <v>1581377400</v>
       </c>
-      <c r="Z432" s="5">
+      <c r="Z432" s="60">
         <v>2552233600</v>
       </c>
-      <c r="AA432" s="5">
+      <c r="AA432" s="60">
         <v>14</v>
       </c>
-      <c r="AH432" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI432" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL432" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM432" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="433" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A433" s="5">
+      <c r="AH432" s="60">
+        <v>1</v>
+      </c>
+      <c r="AI432" s="60">
+        <v>1</v>
+      </c>
+      <c r="AL432" s="60">
+        <v>1</v>
+      </c>
+      <c r="AM432" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="433" spans="1:39" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A433" s="60">
         <v>432</v>
       </c>
-      <c r="B433" s="5">
+      <c r="B433" s="60">
         <v>10349</v>
       </c>
-      <c r="F433" s="5">
-        <v>1</v>
-      </c>
-      <c r="G433" s="5" t="s">
+      <c r="F433" s="60">
+        <v>1</v>
+      </c>
+      <c r="G433" s="60" t="s">
         <v>1555</v>
       </c>
-      <c r="I433" s="5" t="s">
+      <c r="I433" s="60" t="s">
         <v>1560</v>
       </c>
-      <c r="J433" s="5" t="s">
+      <c r="J433" s="60" t="s">
         <v>1554</v>
       </c>
-      <c r="L433" s="5">
+      <c r="L433" s="60">
         <v>-28</v>
       </c>
-      <c r="M433" s="5">
-        <v>0</v>
-      </c>
-      <c r="N433" s="5">
-        <v>0</v>
-      </c>
-      <c r="O433" s="5" t="s">
+      <c r="M433" s="60">
+        <v>0</v>
+      </c>
+      <c r="N433" s="60">
+        <v>0</v>
+      </c>
+      <c r="O433" s="60" t="s">
         <v>112</v>
       </c>
-      <c r="P433" s="5">
+      <c r="P433" s="60">
         <v>600</v>
       </c>
-      <c r="Q433" s="5" t="s">
+      <c r="Q433" s="60" t="s">
         <v>1557</v>
       </c>
-      <c r="R433" s="10" t="s">
+      <c r="R433" s="61" t="s">
         <v>1561</v>
       </c>
-      <c r="W433" s="5" t="s">
+      <c r="W433" s="60" t="s">
         <v>543</v>
       </c>
-      <c r="X433" s="5">
+      <c r="X433" s="60">
         <v>9999999</v>
       </c>
-      <c r="Y433" s="5">
+      <c r="Y433" s="60">
         <v>1581377400</v>
       </c>
-      <c r="Z433" s="5">
+      <c r="Z433" s="60">
         <v>2552233600</v>
       </c>
-      <c r="AA433" s="5">
+      <c r="AA433" s="60">
         <v>14</v>
       </c>
-      <c r="AH433" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI433" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL433" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM433" s="5">
+      <c r="AH433" s="60">
+        <v>1</v>
+      </c>
+      <c r="AI433" s="60">
+        <v>1</v>
+      </c>
+      <c r="AL433" s="60">
+        <v>1</v>
+      </c>
+      <c r="AM433" s="60">
         <v>1</v>
       </c>
     </row>
@@ -39330,1930 +39369,1930 @@
         <v>1</v>
       </c>
     </row>
-    <row r="447" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A447" s="5">
+    <row r="447" spans="1:39" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A447" s="60">
         <v>446</v>
       </c>
-      <c r="B447" s="5">
+      <c r="B447" s="60">
         <v>10363</v>
       </c>
-      <c r="F447" s="5">
-        <v>1</v>
-      </c>
-      <c r="G447" s="5" t="s">
+      <c r="F447" s="60">
+        <v>1</v>
+      </c>
+      <c r="G447" s="60" t="s">
         <v>1331</v>
       </c>
-      <c r="I447" s="5" t="s">
+      <c r="I447" s="60" t="s">
         <v>1332</v>
       </c>
-      <c r="J447" s="5" t="s">
+      <c r="J447" s="60" t="s">
         <v>1333</v>
       </c>
-      <c r="L447" s="5">
+      <c r="L447" s="60">
         <v>-31</v>
       </c>
-      <c r="M447" s="5">
-        <v>0</v>
-      </c>
-      <c r="N447" s="5">
-        <v>0</v>
-      </c>
-      <c r="O447" s="5" t="s">
+      <c r="M447" s="60">
+        <v>0</v>
+      </c>
+      <c r="N447" s="60">
+        <v>0</v>
+      </c>
+      <c r="O447" s="60" t="s">
         <v>112</v>
       </c>
-      <c r="P447" s="5">
+      <c r="P447" s="60">
         <v>800</v>
       </c>
-      <c r="Q447" s="5" t="s">
+      <c r="Q447" s="60" t="s">
         <v>460</v>
       </c>
-      <c r="R447" s="10" t="s">
+      <c r="R447" s="61" t="s">
         <v>1334</v>
       </c>
-      <c r="W447" s="5" t="s">
+      <c r="W447" s="60" t="s">
         <v>587</v>
       </c>
-      <c r="X447" s="5">
+      <c r="X447" s="60">
         <v>9999999</v>
       </c>
-      <c r="Y447" s="5">
+      <c r="Y447" s="60">
         <v>1605571200</v>
       </c>
-      <c r="Z447" s="5">
+      <c r="Z447" s="60">
         <v>2552233600</v>
       </c>
-      <c r="AA447" s="5">
+      <c r="AA447" s="60">
         <v>52</v>
       </c>
-      <c r="AH447" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI447" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL447" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM447" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="448" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A448" s="5">
+      <c r="AH447" s="60">
+        <v>1</v>
+      </c>
+      <c r="AI447" s="60">
+        <v>1</v>
+      </c>
+      <c r="AL447" s="60">
+        <v>1</v>
+      </c>
+      <c r="AM447" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="448" spans="1:39" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A448" s="60">
         <v>447</v>
       </c>
-      <c r="B448" s="5">
+      <c r="B448" s="60">
         <v>10364</v>
       </c>
-      <c r="F448" s="5">
-        <v>1</v>
-      </c>
-      <c r="G448" s="5" t="s">
+      <c r="F448" s="60">
+        <v>1</v>
+      </c>
+      <c r="G448" s="60" t="s">
         <v>1335</v>
       </c>
-      <c r="I448" s="5" t="s">
+      <c r="I448" s="60" t="s">
         <v>1336</v>
       </c>
-      <c r="J448" s="5" t="s">
+      <c r="J448" s="60" t="s">
         <v>1337</v>
       </c>
-      <c r="L448" s="5">
+      <c r="L448" s="60">
         <v>-31</v>
       </c>
-      <c r="M448" s="5">
-        <v>0</v>
-      </c>
-      <c r="N448" s="5">
-        <v>0</v>
-      </c>
-      <c r="O448" s="5" t="s">
+      <c r="M448" s="60">
+        <v>0</v>
+      </c>
+      <c r="N448" s="60">
+        <v>0</v>
+      </c>
+      <c r="O448" s="60" t="s">
         <v>112</v>
       </c>
-      <c r="P448" s="5">
+      <c r="P448" s="60">
         <v>800</v>
       </c>
-      <c r="Q448" s="5" t="s">
+      <c r="Q448" s="60" t="s">
         <v>460</v>
       </c>
-      <c r="R448" s="10" t="s">
+      <c r="R448" s="61" t="s">
         <v>1338</v>
       </c>
-      <c r="W448" s="5" t="s">
+      <c r="W448" s="60" t="s">
         <v>587</v>
       </c>
-      <c r="X448" s="5">
+      <c r="X448" s="60">
         <v>9999999</v>
       </c>
-      <c r="Y448" s="5">
+      <c r="Y448" s="60">
         <v>1605571200</v>
       </c>
-      <c r="Z448" s="5">
+      <c r="Z448" s="60">
         <v>2552233600</v>
       </c>
-      <c r="AH448" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI448" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL448" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM448" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="449" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A449" s="5">
+      <c r="AH448" s="60">
+        <v>1</v>
+      </c>
+      <c r="AI448" s="60">
+        <v>1</v>
+      </c>
+      <c r="AL448" s="60">
+        <v>1</v>
+      </c>
+      <c r="AM448" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="449" spans="1:39" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A449" s="60">
         <v>448</v>
       </c>
-      <c r="B449" s="5">
+      <c r="B449" s="60">
         <v>10365</v>
       </c>
-      <c r="F449" s="5">
-        <v>1</v>
-      </c>
-      <c r="G449" s="5" t="s">
+      <c r="F449" s="60">
+        <v>1</v>
+      </c>
+      <c r="G449" s="60" t="s">
         <v>1339</v>
       </c>
-      <c r="I449" s="5" t="s">
+      <c r="I449" s="60" t="s">
         <v>1340</v>
       </c>
-      <c r="J449" s="5" t="s">
+      <c r="J449" s="60" t="s">
         <v>1341</v>
       </c>
-      <c r="L449" s="5">
+      <c r="L449" s="60">
         <v>-31</v>
       </c>
-      <c r="M449" s="5">
-        <v>0</v>
-      </c>
-      <c r="N449" s="5">
-        <v>0</v>
-      </c>
-      <c r="O449" s="5" t="s">
+      <c r="M449" s="60">
+        <v>0</v>
+      </c>
+      <c r="N449" s="60">
+        <v>0</v>
+      </c>
+      <c r="O449" s="60" t="s">
         <v>112</v>
       </c>
-      <c r="P449" s="5">
+      <c r="P449" s="60">
         <v>800</v>
       </c>
-      <c r="Q449" s="5" t="s">
+      <c r="Q449" s="60" t="s">
         <v>460</v>
       </c>
-      <c r="R449" s="10" t="s">
+      <c r="R449" s="61" t="s">
         <v>1342</v>
       </c>
-      <c r="W449" s="5" t="s">
+      <c r="W449" s="60" t="s">
         <v>543</v>
       </c>
-      <c r="X449" s="5">
+      <c r="X449" s="60">
         <v>9999999</v>
       </c>
-      <c r="Y449" s="5">
+      <c r="Y449" s="60">
         <v>1605571200</v>
       </c>
-      <c r="Z449" s="5">
+      <c r="Z449" s="60">
         <v>2552233600</v>
       </c>
-      <c r="AA449" s="5">
+      <c r="AA449" s="60">
         <v>53</v>
       </c>
-      <c r="AH449" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI449" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL449" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM449" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="450" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A450" s="5">
+      <c r="AH449" s="60">
+        <v>1</v>
+      </c>
+      <c r="AI449" s="60">
+        <v>1</v>
+      </c>
+      <c r="AL449" s="60">
+        <v>1</v>
+      </c>
+      <c r="AM449" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="450" spans="1:39" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A450" s="60">
         <v>449</v>
       </c>
-      <c r="B450" s="5">
+      <c r="B450" s="60">
         <v>10366</v>
       </c>
-      <c r="F450" s="5">
-        <v>1</v>
-      </c>
-      <c r="G450" s="5" t="s">
+      <c r="F450" s="60">
+        <v>1</v>
+      </c>
+      <c r="G450" s="60" t="s">
         <v>1343</v>
       </c>
-      <c r="I450" s="5" t="s">
+      <c r="I450" s="60" t="s">
         <v>1344</v>
       </c>
-      <c r="J450" s="5" t="s">
+      <c r="J450" s="60" t="s">
         <v>1345</v>
       </c>
-      <c r="L450" s="5">
+      <c r="L450" s="60">
         <v>-31</v>
       </c>
-      <c r="M450" s="5">
-        <v>0</v>
-      </c>
-      <c r="N450" s="5">
-        <v>0</v>
-      </c>
-      <c r="O450" s="5" t="s">
+      <c r="M450" s="60">
+        <v>0</v>
+      </c>
+      <c r="N450" s="60">
+        <v>0</v>
+      </c>
+      <c r="O450" s="60" t="s">
         <v>112</v>
       </c>
-      <c r="P450" s="5">
+      <c r="P450" s="60">
         <v>3800</v>
       </c>
-      <c r="Q450" s="5" t="s">
+      <c r="Q450" s="60" t="s">
         <v>460</v>
       </c>
-      <c r="R450" s="10" t="s">
+      <c r="R450" s="61" t="s">
         <v>1346</v>
       </c>
-      <c r="W450" s="5" t="s">
+      <c r="W450" s="60" t="s">
         <v>543</v>
       </c>
-      <c r="X450" s="5">
+      <c r="X450" s="60">
         <v>9999999</v>
       </c>
-      <c r="Y450" s="5">
+      <c r="Y450" s="60">
         <v>1605571200</v>
       </c>
-      <c r="Z450" s="5">
+      <c r="Z450" s="60">
         <v>2552233600</v>
       </c>
-      <c r="AA450" s="5">
+      <c r="AA450" s="60">
         <v>54</v>
       </c>
-      <c r="AH450" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI450" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL450" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM450" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="451" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A451" s="5">
+      <c r="AH450" s="60">
+        <v>1</v>
+      </c>
+      <c r="AI450" s="60">
+        <v>1</v>
+      </c>
+      <c r="AL450" s="60">
+        <v>1</v>
+      </c>
+      <c r="AM450" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="451" spans="1:39" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A451" s="60">
         <v>450</v>
       </c>
-      <c r="B451" s="5">
+      <c r="B451" s="60">
         <v>10367</v>
       </c>
-      <c r="F451" s="5">
-        <v>1</v>
-      </c>
-      <c r="G451" s="5" t="s">
+      <c r="F451" s="60">
+        <v>1</v>
+      </c>
+      <c r="G451" s="60" t="s">
         <v>1347</v>
       </c>
-      <c r="I451" s="5" t="s">
+      <c r="I451" s="60" t="s">
         <v>1348</v>
       </c>
-      <c r="J451" s="5" t="s">
+      <c r="J451" s="60" t="s">
         <v>1349</v>
       </c>
-      <c r="L451" s="5">
+      <c r="L451" s="60">
         <v>-31</v>
       </c>
-      <c r="M451" s="5">
-        <v>0</v>
-      </c>
-      <c r="N451" s="5">
-        <v>0</v>
-      </c>
-      <c r="O451" s="5" t="s">
+      <c r="M451" s="60">
+        <v>0</v>
+      </c>
+      <c r="N451" s="60">
+        <v>0</v>
+      </c>
+      <c r="O451" s="60" t="s">
         <v>112</v>
       </c>
-      <c r="P451" s="5">
+      <c r="P451" s="60">
         <v>3800</v>
       </c>
-      <c r="Q451" s="5" t="s">
+      <c r="Q451" s="60" t="s">
         <v>460</v>
       </c>
-      <c r="R451" s="10" t="s">
+      <c r="R451" s="61" t="s">
         <v>1350</v>
       </c>
-      <c r="W451" s="5" t="s">
+      <c r="W451" s="60" t="s">
         <v>543</v>
       </c>
-      <c r="X451" s="5">
+      <c r="X451" s="60">
         <v>9999999</v>
       </c>
-      <c r="Y451" s="5">
+      <c r="Y451" s="60">
         <v>1605571200</v>
       </c>
-      <c r="Z451" s="5">
+      <c r="Z451" s="60">
         <v>2552233600</v>
       </c>
-      <c r="AH451" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI451" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL451" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM451" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="452" spans="1:39" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A452" s="5">
+      <c r="AH451" s="60">
+        <v>1</v>
+      </c>
+      <c r="AI451" s="60">
+        <v>1</v>
+      </c>
+      <c r="AL451" s="60">
+        <v>1</v>
+      </c>
+      <c r="AM451" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="452" spans="1:39" s="60" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A452" s="60">
         <v>451</v>
       </c>
-      <c r="B452" s="5">
+      <c r="B452" s="60">
         <v>10368</v>
       </c>
-      <c r="F452" s="5">
-        <v>1</v>
-      </c>
-      <c r="G452" s="5" t="s">
+      <c r="F452" s="60">
+        <v>1</v>
+      </c>
+      <c r="G452" s="60" t="s">
         <v>1351</v>
       </c>
-      <c r="I452" s="5" t="s">
+      <c r="I452" s="60" t="s">
         <v>1352</v>
       </c>
-      <c r="J452" s="5" t="s">
+      <c r="J452" s="60" t="s">
         <v>1353</v>
       </c>
-      <c r="L452" s="5">
+      <c r="L452" s="60">
         <v>-31</v>
       </c>
-      <c r="M452" s="5">
-        <v>0</v>
-      </c>
-      <c r="N452" s="5">
-        <v>0</v>
-      </c>
-      <c r="O452" s="5" t="s">
+      <c r="M452" s="60">
+        <v>0</v>
+      </c>
+      <c r="N452" s="60">
+        <v>0</v>
+      </c>
+      <c r="O452" s="60" t="s">
         <v>112</v>
       </c>
-      <c r="P452" s="5">
+      <c r="P452" s="60">
         <v>3800</v>
       </c>
-      <c r="Q452" s="5" t="s">
+      <c r="Q452" s="60" t="s">
         <v>460</v>
       </c>
-      <c r="R452" s="10" t="s">
+      <c r="R452" s="61" t="s">
         <v>1354</v>
       </c>
-      <c r="W452" s="5" t="s">
+      <c r="W452" s="60" t="s">
         <v>543</v>
       </c>
-      <c r="X452" s="5">
+      <c r="X452" s="60">
         <v>9999999</v>
       </c>
-      <c r="Y452" s="5">
+      <c r="Y452" s="60">
         <v>1605571200</v>
       </c>
-      <c r="Z452" s="5">
+      <c r="Z452" s="60">
         <v>2552233600</v>
       </c>
-      <c r="AA452" s="5">
+      <c r="AA452" s="60">
         <v>55</v>
       </c>
-      <c r="AH452" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI452" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL452" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM452" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="453" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A453" s="5">
+      <c r="AH452" s="60">
+        <v>1</v>
+      </c>
+      <c r="AI452" s="60">
+        <v>1</v>
+      </c>
+      <c r="AL452" s="60">
+        <v>1</v>
+      </c>
+      <c r="AM452" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="453" spans="1:39" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A453" s="60">
         <v>452</v>
       </c>
-      <c r="B453" s="5">
+      <c r="B453" s="60">
         <v>10369</v>
       </c>
-      <c r="F453" s="5">
-        <v>1</v>
-      </c>
-      <c r="G453" s="5" t="s">
+      <c r="F453" s="60">
+        <v>1</v>
+      </c>
+      <c r="G453" s="60" t="s">
         <v>1355</v>
       </c>
-      <c r="I453" s="5" t="s">
+      <c r="I453" s="60" t="s">
         <v>1356</v>
       </c>
-      <c r="J453" s="5" t="s">
+      <c r="J453" s="60" t="s">
         <v>1357</v>
       </c>
-      <c r="L453" s="5">
+      <c r="L453" s="60">
         <v>-31</v>
       </c>
-      <c r="M453" s="5">
-        <v>0</v>
-      </c>
-      <c r="N453" s="5">
-        <v>0</v>
-      </c>
-      <c r="O453" s="5" t="s">
+      <c r="M453" s="60">
+        <v>0</v>
+      </c>
+      <c r="N453" s="60">
+        <v>0</v>
+      </c>
+      <c r="O453" s="60" t="s">
         <v>112</v>
       </c>
-      <c r="P453" s="5">
+      <c r="P453" s="60">
         <v>9800</v>
       </c>
-      <c r="Q453" s="5" t="s">
+      <c r="Q453" s="60" t="s">
         <v>460</v>
       </c>
-      <c r="R453" s="10" t="s">
+      <c r="R453" s="61" t="s">
         <v>1358</v>
       </c>
-      <c r="W453" s="5" t="s">
+      <c r="W453" s="60" t="s">
         <v>543</v>
       </c>
-      <c r="X453" s="5">
+      <c r="X453" s="60">
         <v>9999999</v>
       </c>
-      <c r="Y453" s="5">
+      <c r="Y453" s="60">
         <v>1605571200</v>
       </c>
-      <c r="Z453" s="5">
+      <c r="Z453" s="60">
         <v>2552233600</v>
       </c>
-      <c r="AA453" s="5">
+      <c r="AA453" s="60">
         <v>56</v>
       </c>
-      <c r="AH453" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI453" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL453" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM453" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="454" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A454" s="5">
+      <c r="AH453" s="60">
+        <v>1</v>
+      </c>
+      <c r="AI453" s="60">
+        <v>1</v>
+      </c>
+      <c r="AL453" s="60">
+        <v>1</v>
+      </c>
+      <c r="AM453" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="454" spans="1:39" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A454" s="60">
         <v>453</v>
       </c>
-      <c r="B454" s="5">
+      <c r="B454" s="60">
         <v>10370</v>
       </c>
-      <c r="F454" s="5">
-        <v>1</v>
-      </c>
-      <c r="G454" s="5" t="s">
+      <c r="F454" s="60">
+        <v>1</v>
+      </c>
+      <c r="G454" s="60" t="s">
         <v>1359</v>
       </c>
-      <c r="I454" s="5" t="s">
+      <c r="I454" s="60" t="s">
         <v>1360</v>
       </c>
-      <c r="J454" s="5" t="s">
+      <c r="J454" s="60" t="s">
         <v>1361</v>
       </c>
-      <c r="L454" s="5">
+      <c r="L454" s="60">
         <v>-31</v>
       </c>
-      <c r="M454" s="5">
-        <v>0</v>
-      </c>
-      <c r="N454" s="5">
-        <v>0</v>
-      </c>
-      <c r="O454" s="5" t="s">
+      <c r="M454" s="60">
+        <v>0</v>
+      </c>
+      <c r="N454" s="60">
+        <v>0</v>
+      </c>
+      <c r="O454" s="60" t="s">
         <v>112</v>
       </c>
-      <c r="P454" s="5">
+      <c r="P454" s="60">
         <v>9800</v>
       </c>
-      <c r="Q454" s="5" t="s">
+      <c r="Q454" s="60" t="s">
         <v>460</v>
       </c>
-      <c r="R454" s="10" t="s">
+      <c r="R454" s="61" t="s">
         <v>1362</v>
       </c>
-      <c r="W454" s="5" t="s">
+      <c r="W454" s="60" t="s">
         <v>543</v>
       </c>
-      <c r="X454" s="5">
+      <c r="X454" s="60">
         <v>9999999</v>
       </c>
-      <c r="Y454" s="5">
+      <c r="Y454" s="60">
         <v>1605571200</v>
       </c>
-      <c r="Z454" s="5">
+      <c r="Z454" s="60">
         <v>2552233600</v>
       </c>
-      <c r="AH454" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI454" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL454" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM454" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="455" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A455" s="5">
+      <c r="AH454" s="60">
+        <v>1</v>
+      </c>
+      <c r="AI454" s="60">
+        <v>1</v>
+      </c>
+      <c r="AL454" s="60">
+        <v>1</v>
+      </c>
+      <c r="AM454" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="455" spans="1:39" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A455" s="60">
         <v>454</v>
       </c>
-      <c r="B455" s="5">
+      <c r="B455" s="60">
         <v>10371</v>
       </c>
-      <c r="F455" s="5">
-        <v>1</v>
-      </c>
-      <c r="G455" s="5" t="s">
+      <c r="F455" s="60">
+        <v>1</v>
+      </c>
+      <c r="G455" s="60" t="s">
         <v>1363</v>
       </c>
-      <c r="I455" s="5" t="s">
+      <c r="I455" s="60" t="s">
         <v>1364</v>
       </c>
-      <c r="J455" s="5" t="s">
+      <c r="J455" s="60" t="s">
         <v>1365</v>
       </c>
-      <c r="L455" s="5">
+      <c r="L455" s="60">
         <v>-31</v>
       </c>
-      <c r="M455" s="5">
-        <v>0</v>
-      </c>
-      <c r="N455" s="5">
-        <v>0</v>
-      </c>
-      <c r="O455" s="5" t="s">
+      <c r="M455" s="60">
+        <v>0</v>
+      </c>
+      <c r="N455" s="60">
+        <v>0</v>
+      </c>
+      <c r="O455" s="60" t="s">
         <v>112</v>
       </c>
-      <c r="P455" s="5">
+      <c r="P455" s="60">
         <v>9800</v>
       </c>
-      <c r="Q455" s="5" t="s">
+      <c r="Q455" s="60" t="s">
         <v>460</v>
       </c>
-      <c r="R455" s="10" t="s">
+      <c r="R455" s="61" t="s">
         <v>1491</v>
       </c>
-      <c r="W455" s="5" t="s">
+      <c r="W455" s="60" t="s">
         <v>543</v>
       </c>
-      <c r="X455" s="5">
+      <c r="X455" s="60">
         <v>9999999</v>
       </c>
-      <c r="Y455" s="5">
+      <c r="Y455" s="60">
         <v>1605571200</v>
       </c>
-      <c r="Z455" s="5">
+      <c r="Z455" s="60">
         <v>2552233600</v>
       </c>
-      <c r="AA455" s="5">
+      <c r="AA455" s="60">
         <v>57</v>
       </c>
-      <c r="AH455" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI455" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL455" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM455" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="456" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A456" s="5">
+      <c r="AH455" s="60">
+        <v>1</v>
+      </c>
+      <c r="AI455" s="60">
+        <v>1</v>
+      </c>
+      <c r="AL455" s="60">
+        <v>1</v>
+      </c>
+      <c r="AM455" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="456" spans="1:39" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A456" s="60">
         <v>455</v>
       </c>
-      <c r="B456" s="5">
+      <c r="B456" s="60">
         <v>10372</v>
       </c>
-      <c r="F456" s="5">
-        <v>1</v>
-      </c>
-      <c r="G456" s="5" t="s">
+      <c r="F456" s="60">
+        <v>1</v>
+      </c>
+      <c r="G456" s="60" t="s">
         <v>1366</v>
       </c>
-      <c r="I456" s="5" t="s">
+      <c r="I456" s="60" t="s">
         <v>1367</v>
       </c>
-      <c r="J456" s="5" t="s">
+      <c r="J456" s="60" t="s">
         <v>1368</v>
       </c>
-      <c r="L456" s="5">
+      <c r="L456" s="60">
         <v>-31</v>
       </c>
-      <c r="M456" s="5">
-        <v>0</v>
-      </c>
-      <c r="N456" s="5">
-        <v>0</v>
-      </c>
-      <c r="O456" s="5" t="s">
+      <c r="M456" s="60">
+        <v>0</v>
+      </c>
+      <c r="N456" s="60">
+        <v>0</v>
+      </c>
+      <c r="O456" s="60" t="s">
         <v>112</v>
       </c>
-      <c r="P456" s="5">
+      <c r="P456" s="60">
         <v>19800</v>
       </c>
-      <c r="Q456" s="5" t="s">
+      <c r="Q456" s="60" t="s">
         <v>460</v>
       </c>
-      <c r="R456" s="10" t="s">
+      <c r="R456" s="61" t="s">
         <v>1369</v>
       </c>
-      <c r="W456" s="5" t="s">
+      <c r="W456" s="60" t="s">
         <v>543</v>
       </c>
-      <c r="X456" s="5">
+      <c r="X456" s="60">
         <v>9999999</v>
       </c>
-      <c r="Y456" s="5">
+      <c r="Y456" s="60">
         <v>1605571200</v>
       </c>
-      <c r="Z456" s="5">
+      <c r="Z456" s="60">
         <v>2552233600</v>
       </c>
-      <c r="AA456" s="5">
+      <c r="AA456" s="60">
         <v>58</v>
       </c>
-      <c r="AH456" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI456" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL456" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM456" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="457" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A457" s="5">
+      <c r="AH456" s="60">
+        <v>1</v>
+      </c>
+      <c r="AI456" s="60">
+        <v>1</v>
+      </c>
+      <c r="AL456" s="60">
+        <v>1</v>
+      </c>
+      <c r="AM456" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="457" spans="1:39" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A457" s="60">
         <v>456</v>
       </c>
-      <c r="B457" s="5">
+      <c r="B457" s="60">
         <v>10373</v>
       </c>
-      <c r="F457" s="5">
-        <v>1</v>
-      </c>
-      <c r="G457" s="5" t="s">
+      <c r="F457" s="60">
+        <v>1</v>
+      </c>
+      <c r="G457" s="60" t="s">
         <v>1370</v>
       </c>
-      <c r="I457" s="5" t="s">
+      <c r="I457" s="60" t="s">
         <v>1371</v>
       </c>
-      <c r="J457" s="5" t="s">
+      <c r="J457" s="60" t="s">
         <v>1372</v>
       </c>
-      <c r="L457" s="5">
+      <c r="L457" s="60">
         <v>-31</v>
       </c>
-      <c r="M457" s="5">
-        <v>0</v>
-      </c>
-      <c r="N457" s="5">
-        <v>0</v>
-      </c>
-      <c r="O457" s="5" t="s">
+      <c r="M457" s="60">
+        <v>0</v>
+      </c>
+      <c r="N457" s="60">
+        <v>0</v>
+      </c>
+      <c r="O457" s="60" t="s">
         <v>112</v>
       </c>
-      <c r="P457" s="5">
+      <c r="P457" s="60">
         <v>19800</v>
       </c>
-      <c r="Q457" s="5" t="s">
+      <c r="Q457" s="60" t="s">
         <v>460</v>
       </c>
-      <c r="R457" s="10" t="s">
+      <c r="R457" s="61" t="s">
         <v>1373</v>
       </c>
-      <c r="W457" s="5" t="s">
+      <c r="W457" s="60" t="s">
         <v>543</v>
       </c>
-      <c r="X457" s="5">
+      <c r="X457" s="60">
         <v>9999999</v>
       </c>
-      <c r="Y457" s="5">
+      <c r="Y457" s="60">
         <v>1605571200</v>
       </c>
-      <c r="Z457" s="5">
+      <c r="Z457" s="60">
         <v>2552233600</v>
       </c>
-      <c r="AH457" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI457" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL457" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM457" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="458" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A458" s="5">
+      <c r="AH457" s="60">
+        <v>1</v>
+      </c>
+      <c r="AI457" s="60">
+        <v>1</v>
+      </c>
+      <c r="AL457" s="60">
+        <v>1</v>
+      </c>
+      <c r="AM457" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="458" spans="1:39" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A458" s="60">
         <v>457</v>
       </c>
-      <c r="B458" s="5">
+      <c r="B458" s="60">
         <v>10374</v>
       </c>
-      <c r="F458" s="5">
-        <v>1</v>
-      </c>
-      <c r="G458" s="5" t="s">
+      <c r="F458" s="60">
+        <v>1</v>
+      </c>
+      <c r="G458" s="60" t="s">
         <v>1374</v>
       </c>
-      <c r="I458" s="5" t="s">
+      <c r="I458" s="60" t="s">
         <v>1375</v>
       </c>
-      <c r="J458" s="5" t="s">
+      <c r="J458" s="60" t="s">
         <v>1376</v>
       </c>
-      <c r="L458" s="5">
+      <c r="L458" s="60">
         <v>-31</v>
       </c>
-      <c r="M458" s="5">
-        <v>0</v>
-      </c>
-      <c r="N458" s="5">
-        <v>0</v>
-      </c>
-      <c r="O458" s="5" t="s">
+      <c r="M458" s="60">
+        <v>0</v>
+      </c>
+      <c r="N458" s="60">
+        <v>0</v>
+      </c>
+      <c r="O458" s="60" t="s">
         <v>112</v>
       </c>
-      <c r="P458" s="5">
+      <c r="P458" s="60">
         <v>19800</v>
       </c>
-      <c r="Q458" s="5" t="s">
+      <c r="Q458" s="60" t="s">
         <v>460</v>
       </c>
-      <c r="R458" s="10" t="s">
+      <c r="R458" s="61" t="s">
         <v>1377</v>
       </c>
-      <c r="W458" s="5" t="s">
+      <c r="W458" s="60" t="s">
         <v>543</v>
       </c>
-      <c r="X458" s="5">
+      <c r="X458" s="60">
         <v>9999999</v>
       </c>
-      <c r="Y458" s="5">
+      <c r="Y458" s="60">
         <v>1605571200</v>
       </c>
-      <c r="Z458" s="5">
+      <c r="Z458" s="60">
         <v>2552233600</v>
       </c>
-      <c r="AA458" s="5">
+      <c r="AA458" s="60">
         <v>59</v>
       </c>
-      <c r="AH458" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI458" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL458" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM458" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="459" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A459" s="5">
+      <c r="AH458" s="60">
+        <v>1</v>
+      </c>
+      <c r="AI458" s="60">
+        <v>1</v>
+      </c>
+      <c r="AL458" s="60">
+        <v>1</v>
+      </c>
+      <c r="AM458" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="459" spans="1:39" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A459" s="60">
         <v>458</v>
       </c>
-      <c r="B459" s="5">
+      <c r="B459" s="60">
         <v>10375</v>
       </c>
-      <c r="F459" s="5">
-        <v>1</v>
-      </c>
-      <c r="G459" s="5" t="s">
+      <c r="F459" s="60">
+        <v>1</v>
+      </c>
+      <c r="G459" s="60" t="s">
         <v>1378</v>
       </c>
-      <c r="I459" s="5" t="s">
+      <c r="I459" s="60" t="s">
         <v>1379</v>
       </c>
-      <c r="J459" s="5" t="s">
+      <c r="J459" s="60" t="s">
         <v>1380</v>
       </c>
-      <c r="L459" s="5">
+      <c r="L459" s="60">
         <v>-31</v>
       </c>
-      <c r="M459" s="5">
-        <v>0</v>
-      </c>
-      <c r="N459" s="5">
-        <v>0</v>
-      </c>
-      <c r="O459" s="5" t="s">
+      <c r="M459" s="60">
+        <v>0</v>
+      </c>
+      <c r="N459" s="60">
+        <v>0</v>
+      </c>
+      <c r="O459" s="60" t="s">
         <v>112</v>
       </c>
-      <c r="P459" s="5">
+      <c r="P459" s="60">
         <v>49800</v>
       </c>
-      <c r="Q459" s="5" t="s">
+      <c r="Q459" s="60" t="s">
         <v>460</v>
       </c>
-      <c r="R459" s="10" t="s">
+      <c r="R459" s="61" t="s">
         <v>1381</v>
       </c>
-      <c r="W459" s="5" t="s">
+      <c r="W459" s="60" t="s">
         <v>543</v>
       </c>
-      <c r="X459" s="5">
+      <c r="X459" s="60">
         <v>9999999</v>
       </c>
-      <c r="Y459" s="5">
+      <c r="Y459" s="60">
         <v>1605571200</v>
       </c>
-      <c r="Z459" s="5">
+      <c r="Z459" s="60">
         <v>2552233600</v>
       </c>
-      <c r="AA459" s="5">
+      <c r="AA459" s="60">
         <v>60</v>
       </c>
-      <c r="AH459" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI459" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL459" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM459" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="460" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A460" s="5">
+      <c r="AH459" s="60">
+        <v>1</v>
+      </c>
+      <c r="AI459" s="60">
+        <v>1</v>
+      </c>
+      <c r="AL459" s="60">
+        <v>1</v>
+      </c>
+      <c r="AM459" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="460" spans="1:39" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A460" s="60">
         <v>459</v>
       </c>
-      <c r="B460" s="5">
+      <c r="B460" s="60">
         <v>10376</v>
       </c>
-      <c r="F460" s="5">
-        <v>1</v>
-      </c>
-      <c r="G460" s="5" t="s">
+      <c r="F460" s="60">
+        <v>1</v>
+      </c>
+      <c r="G460" s="60" t="s">
         <v>1382</v>
       </c>
-      <c r="I460" s="5" t="s">
+      <c r="I460" s="60" t="s">
         <v>1383</v>
       </c>
-      <c r="J460" s="5" t="s">
+      <c r="J460" s="60" t="s">
         <v>1384</v>
       </c>
-      <c r="L460" s="5">
+      <c r="L460" s="60">
         <v>-31</v>
       </c>
-      <c r="M460" s="5">
-        <v>0</v>
-      </c>
-      <c r="N460" s="5">
-        <v>0</v>
-      </c>
-      <c r="O460" s="5" t="s">
+      <c r="M460" s="60">
+        <v>0</v>
+      </c>
+      <c r="N460" s="60">
+        <v>0</v>
+      </c>
+      <c r="O460" s="60" t="s">
         <v>112</v>
       </c>
-      <c r="P460" s="5">
+      <c r="P460" s="60">
         <v>49800</v>
       </c>
-      <c r="Q460" s="5" t="s">
+      <c r="Q460" s="60" t="s">
         <v>460</v>
       </c>
-      <c r="R460" s="10" t="s">
+      <c r="R460" s="61" t="s">
         <v>1385</v>
       </c>
-      <c r="W460" s="5" t="s">
+      <c r="W460" s="60" t="s">
         <v>543</v>
       </c>
-      <c r="X460" s="5">
+      <c r="X460" s="60">
         <v>9999999</v>
       </c>
-      <c r="Y460" s="5">
+      <c r="Y460" s="60">
         <v>1605571200</v>
       </c>
-      <c r="Z460" s="5">
+      <c r="Z460" s="60">
         <v>2552233600</v>
       </c>
-      <c r="AH460" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI460" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL460" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM460" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="461" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A461" s="5">
+      <c r="AH460" s="60">
+        <v>1</v>
+      </c>
+      <c r="AI460" s="60">
+        <v>1</v>
+      </c>
+      <c r="AL460" s="60">
+        <v>1</v>
+      </c>
+      <c r="AM460" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="461" spans="1:39" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A461" s="60">
         <v>460</v>
       </c>
-      <c r="B461" s="5">
+      <c r="B461" s="60">
         <v>10377</v>
       </c>
-      <c r="F461" s="5">
-        <v>1</v>
-      </c>
-      <c r="G461" s="5" t="s">
+      <c r="F461" s="60">
+        <v>1</v>
+      </c>
+      <c r="G461" s="60" t="s">
         <v>1386</v>
       </c>
-      <c r="I461" s="5" t="s">
+      <c r="I461" s="60" t="s">
         <v>1387</v>
       </c>
-      <c r="J461" s="5" t="s">
+      <c r="J461" s="60" t="s">
         <v>1388</v>
       </c>
-      <c r="L461" s="5">
+      <c r="L461" s="60">
         <v>-31</v>
       </c>
-      <c r="M461" s="5">
-        <v>0</v>
-      </c>
-      <c r="N461" s="5">
-        <v>0</v>
-      </c>
-      <c r="O461" s="5" t="s">
+      <c r="M461" s="60">
+        <v>0</v>
+      </c>
+      <c r="N461" s="60">
+        <v>0</v>
+      </c>
+      <c r="O461" s="60" t="s">
         <v>112</v>
       </c>
-      <c r="P461" s="5">
+      <c r="P461" s="60">
         <v>49800</v>
       </c>
-      <c r="Q461" s="5" t="s">
+      <c r="Q461" s="60" t="s">
         <v>460</v>
       </c>
-      <c r="R461" s="10" t="s">
+      <c r="R461" s="61" t="s">
         <v>1389</v>
       </c>
-      <c r="W461" s="5" t="s">
+      <c r="W461" s="60" t="s">
         <v>543</v>
       </c>
-      <c r="X461" s="5">
+      <c r="X461" s="60">
         <v>9999999</v>
       </c>
-      <c r="Y461" s="5">
+      <c r="Y461" s="60">
         <v>1605571200</v>
       </c>
-      <c r="Z461" s="5">
+      <c r="Z461" s="60">
         <v>2552233600</v>
       </c>
-      <c r="AA461" s="5">
+      <c r="AA461" s="60">
         <v>61</v>
       </c>
-      <c r="AH461" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI461" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL461" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM461" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="462" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A462" s="5">
+      <c r="AH461" s="60">
+        <v>1</v>
+      </c>
+      <c r="AI461" s="60">
+        <v>1</v>
+      </c>
+      <c r="AL461" s="60">
+        <v>1</v>
+      </c>
+      <c r="AM461" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="462" spans="1:39" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A462" s="60">
         <v>461</v>
       </c>
-      <c r="B462" s="5">
+      <c r="B462" s="60">
         <v>10378</v>
       </c>
-      <c r="F462" s="5">
-        <v>1</v>
-      </c>
-      <c r="G462" s="5" t="s">
+      <c r="F462" s="60">
+        <v>1</v>
+      </c>
+      <c r="G462" s="60" t="s">
         <v>1390</v>
       </c>
-      <c r="I462" s="5" t="s">
+      <c r="I462" s="60" t="s">
         <v>1391</v>
       </c>
-      <c r="J462" s="5" t="s">
+      <c r="J462" s="60" t="s">
         <v>1392</v>
       </c>
-      <c r="L462" s="5">
+      <c r="L462" s="60">
         <v>-31</v>
       </c>
-      <c r="M462" s="5">
-        <v>0</v>
-      </c>
-      <c r="N462" s="5">
-        <v>0</v>
-      </c>
-      <c r="O462" s="5" t="s">
+      <c r="M462" s="60">
+        <v>0</v>
+      </c>
+      <c r="N462" s="60">
+        <v>0</v>
+      </c>
+      <c r="O462" s="60" t="s">
         <v>112</v>
       </c>
-      <c r="P462" s="5">
+      <c r="P462" s="60">
         <v>99800</v>
       </c>
-      <c r="Q462" s="5" t="s">
+      <c r="Q462" s="60" t="s">
         <v>460</v>
       </c>
-      <c r="R462" s="10" t="s">
+      <c r="R462" s="61" t="s">
         <v>1393</v>
       </c>
-      <c r="W462" s="5" t="s">
+      <c r="W462" s="60" t="s">
         <v>543</v>
       </c>
-      <c r="X462" s="5">
+      <c r="X462" s="60">
         <v>9999999</v>
       </c>
-      <c r="Y462" s="5">
+      <c r="Y462" s="60">
         <v>1605571200</v>
       </c>
-      <c r="Z462" s="5">
+      <c r="Z462" s="60">
         <v>2552233600</v>
       </c>
-      <c r="AA462" s="5">
+      <c r="AA462" s="60">
         <v>62</v>
       </c>
-      <c r="AH462" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI462" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL462" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM462" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="463" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A463" s="5">
+      <c r="AH462" s="60">
+        <v>1</v>
+      </c>
+      <c r="AI462" s="60">
+        <v>1</v>
+      </c>
+      <c r="AL462" s="60">
+        <v>1</v>
+      </c>
+      <c r="AM462" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="463" spans="1:39" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A463" s="60">
         <v>462</v>
       </c>
-      <c r="B463" s="5">
+      <c r="B463" s="60">
         <v>10379</v>
       </c>
-      <c r="F463" s="5">
-        <v>1</v>
-      </c>
-      <c r="G463" s="5" t="s">
+      <c r="F463" s="60">
+        <v>1</v>
+      </c>
+      <c r="G463" s="60" t="s">
         <v>1394</v>
       </c>
-      <c r="I463" s="5" t="s">
+      <c r="I463" s="60" t="s">
         <v>1395</v>
       </c>
-      <c r="J463" s="5" t="s">
+      <c r="J463" s="60" t="s">
         <v>1396</v>
       </c>
-      <c r="L463" s="5">
+      <c r="L463" s="60">
         <v>-31</v>
       </c>
-      <c r="M463" s="5">
-        <v>0</v>
-      </c>
-      <c r="N463" s="5">
-        <v>0</v>
-      </c>
-      <c r="O463" s="5" t="s">
+      <c r="M463" s="60">
+        <v>0</v>
+      </c>
+      <c r="N463" s="60">
+        <v>0</v>
+      </c>
+      <c r="O463" s="60" t="s">
         <v>112</v>
       </c>
-      <c r="P463" s="5">
+      <c r="P463" s="60">
         <v>99800</v>
       </c>
-      <c r="Q463" s="5" t="s">
+      <c r="Q463" s="60" t="s">
         <v>460</v>
       </c>
-      <c r="R463" s="10" t="s">
+      <c r="R463" s="61" t="s">
         <v>1397</v>
       </c>
-      <c r="W463" s="5" t="s">
+      <c r="W463" s="60" t="s">
         <v>543</v>
       </c>
-      <c r="X463" s="5">
+      <c r="X463" s="60">
         <v>9999999</v>
       </c>
-      <c r="Y463" s="5">
+      <c r="Y463" s="60">
         <v>1605571200</v>
       </c>
-      <c r="Z463" s="5">
+      <c r="Z463" s="60">
         <v>2552233600</v>
       </c>
-      <c r="AH463" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI463" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL463" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM463" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="464" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A464" s="5">
+      <c r="AH463" s="60">
+        <v>1</v>
+      </c>
+      <c r="AI463" s="60">
+        <v>1</v>
+      </c>
+      <c r="AL463" s="60">
+        <v>1</v>
+      </c>
+      <c r="AM463" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="464" spans="1:39" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A464" s="60">
         <v>463</v>
       </c>
-      <c r="B464" s="5">
+      <c r="B464" s="60">
         <v>10380</v>
       </c>
-      <c r="F464" s="5">
-        <v>1</v>
-      </c>
-      <c r="G464" s="5" t="s">
+      <c r="F464" s="60">
+        <v>1</v>
+      </c>
+      <c r="G464" s="60" t="s">
         <v>1398</v>
       </c>
-      <c r="I464" s="5" t="s">
+      <c r="I464" s="60" t="s">
         <v>1399</v>
       </c>
-      <c r="J464" s="5" t="s">
+      <c r="J464" s="60" t="s">
         <v>1400</v>
       </c>
-      <c r="L464" s="5">
+      <c r="L464" s="60">
         <v>-31</v>
       </c>
-      <c r="M464" s="5">
-        <v>0</v>
-      </c>
-      <c r="N464" s="5">
-        <v>0</v>
-      </c>
-      <c r="O464" s="5" t="s">
+      <c r="M464" s="60">
+        <v>0</v>
+      </c>
+      <c r="N464" s="60">
+        <v>0</v>
+      </c>
+      <c r="O464" s="60" t="s">
         <v>112</v>
       </c>
-      <c r="P464" s="5">
+      <c r="P464" s="60">
         <v>99800</v>
       </c>
-      <c r="Q464" s="5" t="s">
+      <c r="Q464" s="60" t="s">
         <v>460</v>
       </c>
-      <c r="R464" s="10" t="s">
+      <c r="R464" s="61" t="s">
         <v>1401</v>
       </c>
-      <c r="W464" s="5" t="s">
+      <c r="W464" s="60" t="s">
         <v>543</v>
       </c>
-      <c r="X464" s="5">
+      <c r="X464" s="60">
         <v>9999999</v>
       </c>
-      <c r="Y464" s="5">
+      <c r="Y464" s="60">
         <v>1605571200</v>
       </c>
-      <c r="Z464" s="5">
+      <c r="Z464" s="60">
         <v>2552233600</v>
       </c>
-      <c r="AA464" s="5">
+      <c r="AA464" s="60">
         <v>63</v>
       </c>
-      <c r="AH464" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI464" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL464" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM464" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="465" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A465" s="5">
+      <c r="AH464" s="60">
+        <v>1</v>
+      </c>
+      <c r="AI464" s="60">
+        <v>1</v>
+      </c>
+      <c r="AL464" s="60">
+        <v>1</v>
+      </c>
+      <c r="AM464" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="465" spans="1:39" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A465" s="60">
         <v>464</v>
       </c>
-      <c r="B465" s="5">
+      <c r="B465" s="60">
         <v>10381</v>
       </c>
-      <c r="F465" s="5">
-        <v>1</v>
-      </c>
-      <c r="G465" s="5" t="s">
+      <c r="F465" s="60">
+        <v>1</v>
+      </c>
+      <c r="G465" s="60" t="s">
         <v>1402</v>
       </c>
-      <c r="I465" s="5" t="s">
+      <c r="I465" s="60" t="s">
         <v>1403</v>
       </c>
-      <c r="J465" s="5" t="s">
+      <c r="J465" s="60" t="s">
         <v>1404</v>
       </c>
-      <c r="L465" s="5">
+      <c r="L465" s="60">
         <v>-31</v>
       </c>
-      <c r="M465" s="5">
-        <v>0</v>
-      </c>
-      <c r="N465" s="5">
-        <v>0</v>
-      </c>
-      <c r="O465" s="5" t="s">
+      <c r="M465" s="60">
+        <v>0</v>
+      </c>
+      <c r="N465" s="60">
+        <v>0</v>
+      </c>
+      <c r="O465" s="60" t="s">
         <v>112</v>
       </c>
-      <c r="P465" s="5">
+      <c r="P465" s="60">
         <v>249800</v>
       </c>
-      <c r="Q465" s="5" t="s">
+      <c r="Q465" s="60" t="s">
         <v>460</v>
       </c>
-      <c r="R465" s="10" t="s">
+      <c r="R465" s="61" t="s">
         <v>1405</v>
       </c>
-      <c r="W465" s="5" t="s">
+      <c r="W465" s="60" t="s">
         <v>543</v>
       </c>
-      <c r="X465" s="5">
+      <c r="X465" s="60">
         <v>9999999</v>
       </c>
-      <c r="Y465" s="5">
+      <c r="Y465" s="60">
         <v>1605571200</v>
       </c>
-      <c r="Z465" s="5">
+      <c r="Z465" s="60">
         <v>2552233600</v>
       </c>
-      <c r="AA465" s="5">
+      <c r="AA465" s="60">
         <v>64</v>
       </c>
-      <c r="AH465" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI465" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL465" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM465" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="466" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A466" s="5">
+      <c r="AH465" s="60">
+        <v>1</v>
+      </c>
+      <c r="AI465" s="60">
+        <v>1</v>
+      </c>
+      <c r="AL465" s="60">
+        <v>1</v>
+      </c>
+      <c r="AM465" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="466" spans="1:39" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A466" s="60">
         <v>465</v>
       </c>
-      <c r="B466" s="5">
+      <c r="B466" s="60">
         <v>10382</v>
       </c>
-      <c r="F466" s="5">
-        <v>1</v>
-      </c>
-      <c r="G466" s="5" t="s">
+      <c r="F466" s="60">
+        <v>1</v>
+      </c>
+      <c r="G466" s="60" t="s">
         <v>1406</v>
       </c>
-      <c r="I466" s="5" t="s">
+      <c r="I466" s="60" t="s">
         <v>1407</v>
       </c>
-      <c r="J466" s="5" t="s">
+      <c r="J466" s="60" t="s">
         <v>1408</v>
       </c>
-      <c r="L466" s="5">
+      <c r="L466" s="60">
         <v>-31</v>
       </c>
-      <c r="M466" s="5">
-        <v>0</v>
-      </c>
-      <c r="N466" s="5">
-        <v>0</v>
-      </c>
-      <c r="O466" s="5" t="s">
+      <c r="M466" s="60">
+        <v>0</v>
+      </c>
+      <c r="N466" s="60">
+        <v>0</v>
+      </c>
+      <c r="O466" s="60" t="s">
         <v>112</v>
       </c>
-      <c r="P466" s="5">
+      <c r="P466" s="60">
         <v>249800</v>
       </c>
-      <c r="Q466" s="5" t="s">
+      <c r="Q466" s="60" t="s">
         <v>460</v>
       </c>
-      <c r="R466" s="10" t="s">
+      <c r="R466" s="61" t="s">
         <v>1409</v>
       </c>
-      <c r="W466" s="5" t="s">
+      <c r="W466" s="60" t="s">
         <v>543</v>
       </c>
-      <c r="X466" s="5">
+      <c r="X466" s="60">
         <v>9999999</v>
       </c>
-      <c r="Y466" s="5">
+      <c r="Y466" s="60">
         <v>1605571200</v>
       </c>
-      <c r="Z466" s="5">
+      <c r="Z466" s="60">
         <v>2552233600</v>
       </c>
-      <c r="AH466" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI466" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL466" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM466" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="467" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A467" s="5">
+      <c r="AH466" s="60">
+        <v>1</v>
+      </c>
+      <c r="AI466" s="60">
+        <v>1</v>
+      </c>
+      <c r="AL466" s="60">
+        <v>1</v>
+      </c>
+      <c r="AM466" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="467" spans="1:39" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A467" s="60">
         <v>466</v>
       </c>
-      <c r="B467" s="5">
+      <c r="B467" s="60">
         <v>10383</v>
       </c>
-      <c r="F467" s="5">
-        <v>1</v>
-      </c>
-      <c r="G467" s="5" t="s">
+      <c r="F467" s="60">
+        <v>1</v>
+      </c>
+      <c r="G467" s="60" t="s">
         <v>1410</v>
       </c>
-      <c r="I467" s="5" t="s">
+      <c r="I467" s="60" t="s">
         <v>1411</v>
       </c>
-      <c r="J467" s="5" t="s">
+      <c r="J467" s="60" t="s">
         <v>1412</v>
       </c>
-      <c r="L467" s="5">
+      <c r="L467" s="60">
         <v>-31</v>
       </c>
-      <c r="M467" s="5">
-        <v>0</v>
-      </c>
-      <c r="N467" s="5">
-        <v>0</v>
-      </c>
-      <c r="O467" s="5" t="s">
+      <c r="M467" s="60">
+        <v>0</v>
+      </c>
+      <c r="N467" s="60">
+        <v>0</v>
+      </c>
+      <c r="O467" s="60" t="s">
         <v>112</v>
       </c>
-      <c r="P467" s="5">
+      <c r="P467" s="60">
         <v>249800</v>
       </c>
-      <c r="Q467" s="5" t="s">
+      <c r="Q467" s="60" t="s">
         <v>460</v>
       </c>
-      <c r="R467" s="10" t="s">
+      <c r="R467" s="61" t="s">
         <v>1413</v>
       </c>
-      <c r="W467" s="5" t="s">
+      <c r="W467" s="60" t="s">
         <v>543</v>
       </c>
-      <c r="X467" s="5">
+      <c r="X467" s="60">
         <v>9999999</v>
       </c>
-      <c r="Y467" s="5">
+      <c r="Y467" s="60">
         <v>1605571200</v>
       </c>
-      <c r="Z467" s="5">
+      <c r="Z467" s="60">
         <v>2552233600</v>
       </c>
-      <c r="AA467" s="5">
+      <c r="AA467" s="60">
         <v>65</v>
       </c>
-      <c r="AH467" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI467" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL467" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM467" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="468" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A468" s="5">
+      <c r="AH467" s="60">
+        <v>1</v>
+      </c>
+      <c r="AI467" s="60">
+        <v>1</v>
+      </c>
+      <c r="AL467" s="60">
+        <v>1</v>
+      </c>
+      <c r="AM467" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="468" spans="1:39" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A468" s="60">
         <v>467</v>
       </c>
-      <c r="B468" s="5">
+      <c r="B468" s="60">
         <v>10384</v>
       </c>
-      <c r="F468" s="5">
-        <v>1</v>
-      </c>
-      <c r="G468" s="5" t="s">
+      <c r="F468" s="60">
+        <v>1</v>
+      </c>
+      <c r="G468" s="60" t="s">
         <v>1414</v>
       </c>
-      <c r="I468" s="5" t="s">
+      <c r="I468" s="60" t="s">
         <v>1415</v>
       </c>
-      <c r="J468" s="5" t="s">
+      <c r="J468" s="60" t="s">
         <v>947</v>
       </c>
-      <c r="L468" s="5">
+      <c r="L468" s="60">
         <v>-31</v>
       </c>
-      <c r="M468" s="5">
-        <v>0</v>
-      </c>
-      <c r="N468" s="5">
-        <v>0</v>
-      </c>
-      <c r="O468" s="5" t="s">
+      <c r="M468" s="60">
+        <v>0</v>
+      </c>
+      <c r="N468" s="60">
+        <v>0</v>
+      </c>
+      <c r="O468" s="60" t="s">
         <v>112</v>
       </c>
-      <c r="P468" s="5">
+      <c r="P468" s="60">
         <v>600</v>
       </c>
-      <c r="Q468" s="5" t="s">
+      <c r="Q468" s="60" t="s">
         <v>460</v>
       </c>
-      <c r="R468" s="10" t="s">
+      <c r="R468" s="61" t="s">
         <v>948</v>
       </c>
-      <c r="W468" s="5" t="s">
+      <c r="W468" s="60" t="s">
         <v>1416</v>
       </c>
-      <c r="X468" s="5">
+      <c r="X468" s="60">
         <v>9999999</v>
       </c>
-      <c r="Y468" s="5">
+      <c r="Y468" s="60">
         <v>1605571200</v>
       </c>
-      <c r="Z468" s="5">
+      <c r="Z468" s="60">
         <v>2552233600</v>
       </c>
-      <c r="AH468" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI468" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL468" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM468" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="469" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A469" s="5">
+      <c r="AH468" s="60">
+        <v>1</v>
+      </c>
+      <c r="AI468" s="60">
+        <v>1</v>
+      </c>
+      <c r="AL468" s="60">
+        <v>1</v>
+      </c>
+      <c r="AM468" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="469" spans="1:39" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A469" s="60">
         <v>468</v>
       </c>
-      <c r="B469" s="5">
+      <c r="B469" s="60">
         <v>10385</v>
       </c>
-      <c r="F469" s="5">
-        <v>1</v>
-      </c>
-      <c r="G469" s="5" t="s">
+      <c r="F469" s="60">
+        <v>1</v>
+      </c>
+      <c r="G469" s="60" t="s">
         <v>1417</v>
       </c>
-      <c r="I469" s="5" t="s">
+      <c r="I469" s="60" t="s">
         <v>1415</v>
       </c>
-      <c r="J469" s="5" t="s">
+      <c r="J469" s="60" t="s">
         <v>1418</v>
       </c>
-      <c r="L469" s="5">
+      <c r="L469" s="60">
         <v>-31</v>
       </c>
-      <c r="M469" s="5">
-        <v>0</v>
-      </c>
-      <c r="N469" s="5">
-        <v>0</v>
-      </c>
-      <c r="O469" s="5" t="s">
+      <c r="M469" s="60">
+        <v>0</v>
+      </c>
+      <c r="N469" s="60">
+        <v>0</v>
+      </c>
+      <c r="O469" s="60" t="s">
         <v>112</v>
       </c>
-      <c r="P469" s="5">
+      <c r="P469" s="60">
         <v>3000</v>
       </c>
-      <c r="Q469" s="5" t="s">
+      <c r="Q469" s="60" t="s">
         <v>460</v>
       </c>
-      <c r="R469" s="10" t="s">
+      <c r="R469" s="61" t="s">
         <v>1419</v>
       </c>
-      <c r="W469" s="5" t="s">
+      <c r="W469" s="60" t="s">
         <v>1416</v>
       </c>
-      <c r="X469" s="5">
+      <c r="X469" s="60">
         <v>9999999</v>
       </c>
-      <c r="Y469" s="5">
+      <c r="Y469" s="60">
         <v>1605571200</v>
       </c>
-      <c r="Z469" s="5">
+      <c r="Z469" s="60">
         <v>2552233600</v>
       </c>
-      <c r="AH469" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI469" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL469" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM469" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="470" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A470" s="5">
+      <c r="AH469" s="60">
+        <v>1</v>
+      </c>
+      <c r="AI469" s="60">
+        <v>1</v>
+      </c>
+      <c r="AL469" s="60">
+        <v>1</v>
+      </c>
+      <c r="AM469" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="470" spans="1:39" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A470" s="60">
         <v>469</v>
       </c>
-      <c r="B470" s="5">
+      <c r="B470" s="60">
         <v>10386</v>
       </c>
-      <c r="F470" s="5">
-        <v>1</v>
-      </c>
-      <c r="G470" s="5" t="s">
+      <c r="F470" s="60">
+        <v>1</v>
+      </c>
+      <c r="G470" s="60" t="s">
         <v>1420</v>
       </c>
-      <c r="I470" s="5" t="s">
+      <c r="I470" s="60" t="s">
         <v>1415</v>
       </c>
-      <c r="J470" s="5" t="s">
+      <c r="J470" s="60" t="s">
         <v>1102</v>
       </c>
-      <c r="L470" s="5">
+      <c r="L470" s="60">
         <v>-31</v>
       </c>
-      <c r="M470" s="5">
-        <v>0</v>
-      </c>
-      <c r="N470" s="5">
-        <v>0</v>
-      </c>
-      <c r="O470" s="5" t="s">
+      <c r="M470" s="60">
+        <v>0</v>
+      </c>
+      <c r="N470" s="60">
+        <v>0</v>
+      </c>
+      <c r="O470" s="60" t="s">
         <v>112</v>
       </c>
-      <c r="P470" s="5">
+      <c r="P470" s="60">
         <v>6800</v>
       </c>
-      <c r="Q470" s="5" t="s">
+      <c r="Q470" s="60" t="s">
         <v>460</v>
       </c>
-      <c r="R470" s="10" t="s">
+      <c r="R470" s="61" t="s">
         <v>732</v>
       </c>
-      <c r="W470" s="5" t="s">
+      <c r="W470" s="60" t="s">
         <v>1416</v>
       </c>
-      <c r="X470" s="5">
+      <c r="X470" s="60">
         <v>9999999</v>
       </c>
-      <c r="Y470" s="5">
+      <c r="Y470" s="60">
         <v>1605571200</v>
       </c>
-      <c r="Z470" s="5">
+      <c r="Z470" s="60">
         <v>2552233600</v>
       </c>
-      <c r="AH470" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI470" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL470" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM470" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="471" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A471" s="5">
+      <c r="AH470" s="60">
+        <v>1</v>
+      </c>
+      <c r="AI470" s="60">
+        <v>1</v>
+      </c>
+      <c r="AL470" s="60">
+        <v>1</v>
+      </c>
+      <c r="AM470" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="471" spans="1:39" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A471" s="60">
         <v>470</v>
       </c>
-      <c r="B471" s="5">
+      <c r="B471" s="60">
         <v>10387</v>
       </c>
-      <c r="F471" s="5">
-        <v>1</v>
-      </c>
-      <c r="G471" s="5" t="s">
+      <c r="F471" s="60">
+        <v>1</v>
+      </c>
+      <c r="G471" s="60" t="s">
         <v>1421</v>
       </c>
-      <c r="I471" s="5" t="s">
+      <c r="I471" s="60" t="s">
         <v>1415</v>
       </c>
-      <c r="J471" s="5" t="s">
+      <c r="J471" s="60" t="s">
         <v>1422</v>
       </c>
-      <c r="L471" s="5">
+      <c r="L471" s="60">
         <v>-31</v>
       </c>
-      <c r="M471" s="5">
-        <v>0</v>
-      </c>
-      <c r="N471" s="5">
-        <v>0</v>
-      </c>
-      <c r="O471" s="5" t="s">
+      <c r="M471" s="60">
+        <v>0</v>
+      </c>
+      <c r="N471" s="60">
+        <v>0</v>
+      </c>
+      <c r="O471" s="60" t="s">
         <v>112</v>
       </c>
-      <c r="P471" s="5">
+      <c r="P471" s="60">
         <v>9800</v>
       </c>
-      <c r="Q471" s="5" t="s">
+      <c r="Q471" s="60" t="s">
         <v>460</v>
       </c>
-      <c r="R471" s="10" t="s">
+      <c r="R471" s="61" t="s">
         <v>1423</v>
       </c>
-      <c r="W471" s="5" t="s">
+      <c r="W471" s="60" t="s">
         <v>1424</v>
       </c>
-      <c r="X471" s="5">
+      <c r="X471" s="60">
         <v>9999999</v>
       </c>
-      <c r="Y471" s="5">
+      <c r="Y471" s="60">
         <v>1605571200</v>
       </c>
-      <c r="Z471" s="5">
+      <c r="Z471" s="60">
         <v>2552233600</v>
       </c>
-      <c r="AH471" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI471" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL471" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM471" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="472" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A472" s="5">
+      <c r="AH471" s="60">
+        <v>1</v>
+      </c>
+      <c r="AI471" s="60">
+        <v>1</v>
+      </c>
+      <c r="AL471" s="60">
+        <v>1</v>
+      </c>
+      <c r="AM471" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="472" spans="1:39" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A472" s="60">
         <v>471</v>
       </c>
-      <c r="B472" s="5">
+      <c r="B472" s="60">
         <v>10388</v>
       </c>
-      <c r="F472" s="5">
-        <v>1</v>
-      </c>
-      <c r="G472" s="5" t="s">
+      <c r="F472" s="60">
+        <v>1</v>
+      </c>
+      <c r="G472" s="60" t="s">
         <v>1425</v>
       </c>
-      <c r="I472" s="5" t="s">
+      <c r="I472" s="60" t="s">
         <v>1415</v>
       </c>
-      <c r="J472" s="5" t="s">
+      <c r="J472" s="60" t="s">
         <v>1426</v>
       </c>
-      <c r="L472" s="5">
+      <c r="L472" s="60">
         <v>-31</v>
       </c>
-      <c r="M472" s="5">
-        <v>0</v>
-      </c>
-      <c r="N472" s="5">
-        <v>0</v>
-      </c>
-      <c r="O472" s="5" t="s">
+      <c r="M472" s="60">
+        <v>0</v>
+      </c>
+      <c r="N472" s="60">
+        <v>0</v>
+      </c>
+      <c r="O472" s="60" t="s">
         <v>112</v>
       </c>
-      <c r="P472" s="5">
+      <c r="P472" s="60">
         <v>19800</v>
       </c>
-      <c r="Q472" s="5" t="s">
+      <c r="Q472" s="60" t="s">
         <v>460</v>
       </c>
-      <c r="R472" s="10" t="s">
+      <c r="R472" s="61" t="s">
         <v>733</v>
       </c>
-      <c r="W472" s="5" t="s">
+      <c r="W472" s="60" t="s">
         <v>1424</v>
       </c>
-      <c r="X472" s="5">
+      <c r="X472" s="60">
         <v>9999999</v>
       </c>
-      <c r="Y472" s="5">
+      <c r="Y472" s="60">
         <v>1605571200</v>
       </c>
-      <c r="Z472" s="5">
+      <c r="Z472" s="60">
         <v>2552233600</v>
       </c>
-      <c r="AH472" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI472" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL472" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM472" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="473" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A473" s="5">
+      <c r="AH472" s="60">
+        <v>1</v>
+      </c>
+      <c r="AI472" s="60">
+        <v>1</v>
+      </c>
+      <c r="AL472" s="60">
+        <v>1</v>
+      </c>
+      <c r="AM472" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="473" spans="1:39" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A473" s="60">
         <v>472</v>
       </c>
-      <c r="B473" s="5">
+      <c r="B473" s="60">
         <v>10389</v>
       </c>
-      <c r="F473" s="5">
-        <v>1</v>
-      </c>
-      <c r="G473" s="5" t="s">
+      <c r="F473" s="60">
+        <v>1</v>
+      </c>
+      <c r="G473" s="60" t="s">
         <v>1427</v>
       </c>
-      <c r="I473" s="5" t="s">
+      <c r="I473" s="60" t="s">
         <v>1415</v>
       </c>
-      <c r="J473" s="5" t="s">
+      <c r="J473" s="60" t="s">
         <v>1428</v>
       </c>
-      <c r="L473" s="5">
+      <c r="L473" s="60">
         <v>-31</v>
       </c>
-      <c r="M473" s="5">
-        <v>0</v>
-      </c>
-      <c r="N473" s="5">
-        <v>0</v>
-      </c>
-      <c r="O473" s="5" t="s">
+      <c r="M473" s="60">
+        <v>0</v>
+      </c>
+      <c r="N473" s="60">
+        <v>0</v>
+      </c>
+      <c r="O473" s="60" t="s">
         <v>112</v>
       </c>
-      <c r="P473" s="5">
+      <c r="P473" s="60">
         <v>49800</v>
       </c>
-      <c r="Q473" s="5" t="s">
+      <c r="Q473" s="60" t="s">
         <v>460</v>
       </c>
-      <c r="R473" s="10" t="s">
+      <c r="R473" s="61" t="s">
         <v>1429</v>
       </c>
-      <c r="W473" s="5" t="s">
+      <c r="W473" s="60" t="s">
         <v>1424</v>
       </c>
-      <c r="X473" s="5">
+      <c r="X473" s="60">
         <v>9999999</v>
       </c>
-      <c r="Y473" s="5">
+      <c r="Y473" s="60">
         <v>1605571200</v>
       </c>
-      <c r="Z473" s="5">
+      <c r="Z473" s="60">
         <v>2552233600</v>
       </c>
-      <c r="AH473" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI473" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL473" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM473" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="474" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A474" s="5">
+      <c r="AH473" s="60">
+        <v>1</v>
+      </c>
+      <c r="AI473" s="60">
+        <v>1</v>
+      </c>
+      <c r="AL473" s="60">
+        <v>1</v>
+      </c>
+      <c r="AM473" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="474" spans="1:39" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A474" s="60">
         <v>473</v>
       </c>
-      <c r="B474" s="5">
+      <c r="B474" s="60">
         <v>10390</v>
       </c>
-      <c r="F474" s="5">
-        <v>1</v>
-      </c>
-      <c r="G474" s="5" t="s">
+      <c r="F474" s="60">
+        <v>1</v>
+      </c>
+      <c r="G474" s="60" t="s">
         <v>1430</v>
       </c>
-      <c r="I474" s="5" t="s">
+      <c r="I474" s="60" t="s">
         <v>1415</v>
       </c>
-      <c r="J474" s="5" t="s">
+      <c r="J474" s="60" t="s">
         <v>1431</v>
       </c>
-      <c r="L474" s="5">
+      <c r="L474" s="60">
         <v>-31</v>
       </c>
-      <c r="M474" s="5">
-        <v>0</v>
-      </c>
-      <c r="N474" s="5">
-        <v>0</v>
-      </c>
-      <c r="O474" s="5" t="s">
+      <c r="M474" s="60">
+        <v>0</v>
+      </c>
+      <c r="N474" s="60">
+        <v>0</v>
+      </c>
+      <c r="O474" s="60" t="s">
         <v>112</v>
       </c>
-      <c r="P474" s="5">
+      <c r="P474" s="60">
         <v>99800</v>
       </c>
-      <c r="Q474" s="5" t="s">
+      <c r="Q474" s="60" t="s">
         <v>460</v>
       </c>
-      <c r="R474" s="10" t="s">
+      <c r="R474" s="61" t="s">
         <v>1432</v>
       </c>
-      <c r="W474" s="5" t="s">
+      <c r="W474" s="60" t="s">
         <v>1424</v>
       </c>
-      <c r="X474" s="5">
+      <c r="X474" s="60">
         <v>9999999</v>
       </c>
-      <c r="Y474" s="5">
+      <c r="Y474" s="60">
         <v>1605571200</v>
       </c>
-      <c r="Z474" s="5">
+      <c r="Z474" s="60">
         <v>2552233600</v>
       </c>
-      <c r="AH474" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI474" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL474" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM474" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="475" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A475" s="5">
+      <c r="AH474" s="60">
+        <v>1</v>
+      </c>
+      <c r="AI474" s="60">
+        <v>1</v>
+      </c>
+      <c r="AL474" s="60">
+        <v>1</v>
+      </c>
+      <c r="AM474" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="475" spans="1:39" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A475" s="60">
         <v>474</v>
       </c>
-      <c r="B475" s="5">
+      <c r="B475" s="60">
         <v>10391</v>
       </c>
-      <c r="F475" s="5">
-        <v>1</v>
-      </c>
-      <c r="G475" s="5" t="s">
+      <c r="F475" s="60">
+        <v>1</v>
+      </c>
+      <c r="G475" s="60" t="s">
         <v>1433</v>
       </c>
-      <c r="I475" s="5" t="s">
+      <c r="I475" s="60" t="s">
         <v>1415</v>
       </c>
-      <c r="J475" s="5" t="s">
+      <c r="J475" s="60" t="s">
         <v>1492</v>
       </c>
-      <c r="L475" s="5">
+      <c r="L475" s="60">
         <v>-31</v>
       </c>
-      <c r="M475" s="5">
-        <v>0</v>
-      </c>
-      <c r="N475" s="5">
-        <v>0</v>
-      </c>
-      <c r="O475" s="5" t="s">
+      <c r="M475" s="60">
+        <v>0</v>
+      </c>
+      <c r="N475" s="60">
+        <v>0</v>
+      </c>
+      <c r="O475" s="60" t="s">
         <v>112</v>
       </c>
-      <c r="P475" s="5">
+      <c r="P475" s="60">
         <v>249800</v>
       </c>
-      <c r="Q475" s="5" t="s">
+      <c r="Q475" s="60" t="s">
         <v>460</v>
       </c>
-      <c r="R475" s="10" t="s">
+      <c r="R475" s="61" t="s">
         <v>1493</v>
       </c>
-      <c r="W475" s="5" t="s">
+      <c r="W475" s="60" t="s">
         <v>1424</v>
       </c>
-      <c r="X475" s="5">
+      <c r="X475" s="60">
         <v>9999999</v>
       </c>
-      <c r="Y475" s="5">
+      <c r="Y475" s="60">
         <v>1605571200</v>
       </c>
-      <c r="Z475" s="5">
+      <c r="Z475" s="60">
         <v>2552233600</v>
       </c>
-      <c r="AH475" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI475" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL475" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM475" s="5">
+      <c r="AH475" s="60">
+        <v>1</v>
+      </c>
+      <c r="AI475" s="60">
+        <v>1</v>
+      </c>
+      <c r="AL475" s="60">
+        <v>1</v>
+      </c>
+      <c r="AM475" s="60">
         <v>1</v>
       </c>
     </row>
@@ -41265,7 +41304,7 @@
         <v>10392</v>
       </c>
       <c r="F476" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G476" s="5" t="s">
         <v>1470</v>
@@ -41330,7 +41369,7 @@
         <v>10393</v>
       </c>
       <c r="F477" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G477" s="5" t="s">
         <v>1470</v>
@@ -41395,7 +41434,7 @@
         <v>10394</v>
       </c>
       <c r="F478" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G478" s="5" t="s">
         <v>1470</v>
@@ -41460,7 +41499,7 @@
         <v>10395</v>
       </c>
       <c r="F479" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G479" s="5" t="s">
         <v>1470</v>
@@ -41525,7 +41564,7 @@
         <v>10396</v>
       </c>
       <c r="F480" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G480" s="5" t="s">
         <v>1494</v>
@@ -41587,7 +41626,7 @@
         <v>10397</v>
       </c>
       <c r="F481" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G481" s="5" t="s">
         <v>367</v>
@@ -41649,7 +41688,7 @@
         <v>10398</v>
       </c>
       <c r="F482" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G482" s="5" t="s">
         <v>366</v>
@@ -41711,7 +41750,7 @@
         <v>10399</v>
       </c>
       <c r="F483" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G483" s="5" t="s">
         <v>365</v>
@@ -41773,7 +41812,7 @@
         <v>10400</v>
       </c>
       <c r="F484" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G484" s="5" t="s">
         <v>1499</v>
@@ -41835,7 +41874,7 @@
         <v>10401</v>
       </c>
       <c r="F485" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G485" s="5" t="s">
         <v>1501</v>
@@ -41897,7 +41936,7 @@
         <v>10402</v>
       </c>
       <c r="F486" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G486" s="5" t="s">
         <v>1795</v>
@@ -41962,7 +42001,7 @@
         <v>10403</v>
       </c>
       <c r="F487" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G487" s="5" t="s">
         <v>1800</v>
@@ -42027,7 +42066,7 @@
         <v>10404</v>
       </c>
       <c r="F488" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G488" s="5" t="s">
         <v>1803</v>
@@ -42092,7 +42131,7 @@
         <v>10405</v>
       </c>
       <c r="F489" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G489" s="5" t="s">
         <v>1807</v>
@@ -42157,7 +42196,7 @@
         <v>10406</v>
       </c>
       <c r="F490" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G490" s="5" t="s">
         <v>1194</v>
@@ -42222,7 +42261,7 @@
         <v>10407</v>
       </c>
       <c r="F491" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G491" s="5" t="s">
         <v>1812</v>
@@ -42287,7 +42326,7 @@
         <v>10408</v>
       </c>
       <c r="F492" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G492" s="5" t="s">
         <v>1815</v>
@@ -42344,263 +42383,263 @@
         <v>1</v>
       </c>
     </row>
-    <row r="493" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A493" s="5">
+    <row r="493" spans="1:39" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A493" s="60">
         <v>492</v>
       </c>
-      <c r="B493" s="5">
+      <c r="B493" s="60">
         <v>10409</v>
       </c>
-      <c r="F493" s="5">
-        <v>1</v>
-      </c>
-      <c r="G493" s="5" t="s">
+      <c r="F493" s="60">
+        <v>1</v>
+      </c>
+      <c r="G493" s="60" t="s">
         <v>1820</v>
       </c>
-      <c r="I493" s="5" t="s">
+      <c r="I493" s="60" t="s">
         <v>1821</v>
       </c>
-      <c r="J493" s="5" t="s">
+      <c r="J493" s="60" t="s">
         <v>1822</v>
       </c>
-      <c r="L493" s="5">
+      <c r="L493" s="60">
         <v>-31</v>
       </c>
-      <c r="M493" s="5">
-        <v>0</v>
-      </c>
-      <c r="N493" s="5">
-        <v>0</v>
-      </c>
-      <c r="O493" s="5" t="s">
+      <c r="M493" s="60">
+        <v>0</v>
+      </c>
+      <c r="N493" s="60">
+        <v>0</v>
+      </c>
+      <c r="O493" s="60" t="s">
         <v>1823</v>
       </c>
-      <c r="P493" s="5">
+      <c r="P493" s="60">
         <v>49800</v>
       </c>
-      <c r="Q493" s="5" t="s">
+      <c r="Q493" s="60" t="s">
         <v>1824</v>
       </c>
-      <c r="R493" s="10" t="s">
+      <c r="R493" s="61" t="s">
         <v>1826</v>
       </c>
-      <c r="W493" s="5" t="s">
+      <c r="W493" s="60" t="s">
         <v>540</v>
       </c>
-      <c r="X493" s="5">
+      <c r="X493" s="60">
         <v>200</v>
       </c>
-      <c r="Y493" s="5">
+      <c r="Y493" s="60">
         <v>1609200000</v>
       </c>
-      <c r="Z493" s="5">
+      <c r="Z493" s="60">
         <v>1609775999</v>
       </c>
-      <c r="AH493" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI493" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL493" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM493" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="494" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A494" s="5">
+      <c r="AH493" s="60">
+        <v>1</v>
+      </c>
+      <c r="AI493" s="60">
+        <v>1</v>
+      </c>
+      <c r="AL493" s="60">
+        <v>1</v>
+      </c>
+      <c r="AM493" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="494" spans="1:39" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A494" s="60">
         <v>493</v>
       </c>
-      <c r="B494" s="5">
+      <c r="B494" s="60">
         <v>10410</v>
       </c>
-      <c r="F494" s="5">
-        <v>1</v>
-      </c>
-      <c r="G494" s="5" t="s">
+      <c r="F494" s="60">
+        <v>1</v>
+      </c>
+      <c r="G494" s="60" t="s">
         <v>1820</v>
       </c>
-      <c r="I494" s="5" t="s">
+      <c r="I494" s="60" t="s">
         <v>1825</v>
       </c>
-      <c r="J494" s="5" t="s">
+      <c r="J494" s="60" t="s">
         <v>1822</v>
       </c>
-      <c r="L494" s="5">
+      <c r="L494" s="60">
         <v>-31</v>
       </c>
-      <c r="M494" s="5">
-        <v>0</v>
-      </c>
-      <c r="N494" s="5">
-        <v>0</v>
-      </c>
-      <c r="O494" s="5" t="s">
+      <c r="M494" s="60">
+        <v>0</v>
+      </c>
+      <c r="N494" s="60">
+        <v>0</v>
+      </c>
+      <c r="O494" s="60" t="s">
         <v>1823</v>
       </c>
-      <c r="P494" s="5">
+      <c r="P494" s="60">
         <v>99800</v>
       </c>
-      <c r="Q494" s="5" t="s">
+      <c r="Q494" s="60" t="s">
         <v>1824</v>
       </c>
-      <c r="R494" s="10" t="s">
+      <c r="R494" s="61" t="s">
         <v>1827</v>
       </c>
-      <c r="W494" s="5" t="s">
+      <c r="W494" s="60" t="s">
         <v>540</v>
       </c>
-      <c r="X494" s="5">
+      <c r="X494" s="60">
         <v>9999999</v>
       </c>
-      <c r="Y494" s="5">
+      <c r="Y494" s="60">
         <v>1609200000</v>
       </c>
-      <c r="Z494" s="5">
+      <c r="Z494" s="60">
         <v>1609775999</v>
       </c>
-      <c r="AH494" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI494" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL494" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM494" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="495" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A495" s="5">
+      <c r="AH494" s="60">
+        <v>1</v>
+      </c>
+      <c r="AI494" s="60">
+        <v>1</v>
+      </c>
+      <c r="AL494" s="60">
+        <v>1</v>
+      </c>
+      <c r="AM494" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="495" spans="1:39" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A495" s="60">
         <v>494</v>
       </c>
-      <c r="B495" s="5">
+      <c r="B495" s="60">
         <v>10411</v>
       </c>
-      <c r="F495" s="5">
-        <v>1</v>
-      </c>
-      <c r="G495" s="5" t="s">
+      <c r="F495" s="60">
+        <v>1</v>
+      </c>
+      <c r="G495" s="60" t="s">
         <v>1836</v>
       </c>
-      <c r="J495" s="5" t="s">
+      <c r="J495" s="60" t="s">
         <v>1837</v>
       </c>
-      <c r="L495" s="5">
+      <c r="L495" s="60">
         <v>-31</v>
       </c>
-      <c r="M495" s="5">
-        <v>0</v>
-      </c>
-      <c r="N495" s="5">
-        <v>0</v>
-      </c>
-      <c r="O495" s="5" t="s">
+      <c r="M495" s="60">
+        <v>0</v>
+      </c>
+      <c r="N495" s="60">
+        <v>0</v>
+      </c>
+      <c r="O495" s="60" t="s">
         <v>1838</v>
       </c>
-      <c r="P495" s="5">
+      <c r="P495" s="60">
         <v>79800</v>
       </c>
-      <c r="Q495" s="5" t="s">
+      <c r="Q495" s="60" t="s">
         <v>1839</v>
       </c>
-      <c r="R495" s="10" t="s">
+      <c r="R495" s="61" t="s">
         <v>1840</v>
       </c>
-      <c r="W495" s="5" t="s">
+      <c r="W495" s="60" t="s">
         <v>1841</v>
       </c>
-      <c r="X495" s="5">
+      <c r="X495" s="60">
         <v>99999999</v>
       </c>
-      <c r="Y495" s="5">
+      <c r="Y495" s="60">
         <v>1592263800</v>
       </c>
-      <c r="Z495" s="5">
+      <c r="Z495" s="60">
         <v>2552233600</v>
       </c>
-      <c r="AA495" s="5">
+      <c r="AA495" s="60">
         <v>14</v>
       </c>
-      <c r="AH495" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI495" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL495" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM495" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="496" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A496" s="5">
+      <c r="AH495" s="60">
+        <v>1</v>
+      </c>
+      <c r="AI495" s="60">
+        <v>1</v>
+      </c>
+      <c r="AL495" s="60">
+        <v>1</v>
+      </c>
+      <c r="AM495" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="496" spans="1:39" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A496" s="60">
         <v>495</v>
       </c>
-      <c r="B496" s="5">
+      <c r="B496" s="60">
         <v>10412</v>
       </c>
-      <c r="F496" s="5">
-        <v>1</v>
-      </c>
-      <c r="G496" s="5" t="s">
+      <c r="F496" s="60">
+        <v>1</v>
+      </c>
+      <c r="G496" s="60" t="s">
         <v>1842</v>
       </c>
-      <c r="J496" s="5" t="s">
+      <c r="J496" s="60" t="s">
         <v>1843</v>
       </c>
-      <c r="L496" s="5">
+      <c r="L496" s="60">
         <v>-31</v>
       </c>
-      <c r="M496" s="5">
-        <v>0</v>
-      </c>
-      <c r="N496" s="5">
-        <v>0</v>
-      </c>
-      <c r="O496" s="5" t="s">
+      <c r="M496" s="60">
+        <v>0</v>
+      </c>
+      <c r="N496" s="60">
+        <v>0</v>
+      </c>
+      <c r="O496" s="60" t="s">
         <v>501</v>
       </c>
-      <c r="P496" s="5">
+      <c r="P496" s="60">
         <v>89800</v>
       </c>
-      <c r="Q496" s="5" t="s">
+      <c r="Q496" s="60" t="s">
         <v>1844</v>
       </c>
-      <c r="R496" s="10" t="s">
+      <c r="R496" s="61" t="s">
         <v>1845</v>
       </c>
-      <c r="W496" s="5" t="s">
+      <c r="W496" s="60" t="s">
         <v>589</v>
       </c>
-      <c r="X496" s="5">
+      <c r="X496" s="60">
         <v>99999999</v>
       </c>
-      <c r="Y496" s="5">
+      <c r="Y496" s="60">
         <v>1592263800</v>
       </c>
-      <c r="Z496" s="5">
+      <c r="Z496" s="60">
         <v>2552233600</v>
       </c>
-      <c r="AA496" s="5">
+      <c r="AA496" s="60">
         <v>14</v>
       </c>
-      <c r="AH496" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI496" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL496" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM496" s="5">
+      <c r="AH496" s="60">
+        <v>1</v>
+      </c>
+      <c r="AI496" s="60">
+        <v>1</v>
+      </c>
+      <c r="AL496" s="60">
+        <v>1</v>
+      </c>
+      <c r="AM496" s="60">
         <v>1</v>
       </c>
     </row>
@@ -42612,7 +42651,7 @@
         <v>10413</v>
       </c>
       <c r="F497" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G497" s="5" t="s">
         <v>1847</v>
@@ -42680,7 +42719,7 @@
         <v>10414</v>
       </c>
       <c r="F498" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G498" s="5" t="s">
         <v>1846</v>
@@ -42748,7 +42787,7 @@
         <v>10415</v>
       </c>
       <c r="F499" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G499" s="5" t="s">
         <v>1846</v>
@@ -42816,7 +42855,7 @@
         <v>10416</v>
       </c>
       <c r="F500" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G500" s="5" t="s">
         <v>1846</v>
@@ -42884,7 +42923,7 @@
         <v>10417</v>
       </c>
       <c r="F501" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G501" s="5" t="s">
         <v>1847</v>
@@ -42952,7 +42991,7 @@
         <v>10418</v>
       </c>
       <c r="F502" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G502" s="5" t="s">
         <v>1847</v>
@@ -43020,7 +43059,7 @@
         <v>10419</v>
       </c>
       <c r="F503" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G503" s="5" t="s">
         <v>1847</v>
@@ -43088,7 +43127,7 @@
         <v>10420</v>
       </c>
       <c r="F504" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G504" s="5" t="s">
         <v>1847</v>
@@ -43156,7 +43195,7 @@
         <v>10421</v>
       </c>
       <c r="F505" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G505" s="5" t="s">
         <v>1847</v>
@@ -43224,7 +43263,7 @@
         <v>10422</v>
       </c>
       <c r="F506" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G506" s="5" t="s">
         <v>1846</v>
@@ -43292,7 +43331,7 @@
         <v>10423</v>
       </c>
       <c r="F507" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G507" s="5" t="s">
         <v>1846</v>
@@ -43360,7 +43399,7 @@
         <v>10424</v>
       </c>
       <c r="F508" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G508" s="5" t="s">
         <v>1846</v>
@@ -43420,183 +43459,183 @@
         <v>1</v>
       </c>
     </row>
-    <row r="509" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A509" s="5">
+    <row r="509" spans="1:39" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A509" s="60">
         <v>508</v>
       </c>
-      <c r="B509" s="5">
+      <c r="B509" s="60">
         <v>10425</v>
       </c>
-      <c r="F509" s="5">
-        <v>1</v>
-      </c>
-      <c r="G509" s="5" t="s">
+      <c r="F509" s="60">
+        <v>1</v>
+      </c>
+      <c r="G509" s="60" t="s">
         <v>1882</v>
       </c>
-      <c r="J509" s="5" t="s">
+      <c r="J509" s="60" t="s">
         <v>1883</v>
       </c>
-      <c r="L509" s="5">
+      <c r="L509" s="60">
         <v>-4</v>
       </c>
-      <c r="M509" s="5">
-        <v>1</v>
-      </c>
-      <c r="N509" s="5">
-        <v>0</v>
-      </c>
-      <c r="O509" s="5" t="s">
+      <c r="M509" s="60">
+        <v>1</v>
+      </c>
+      <c r="N509" s="60">
+        <v>0</v>
+      </c>
+      <c r="O509" s="60" t="s">
         <v>112</v>
       </c>
-      <c r="P509" s="5">
+      <c r="P509" s="60">
         <v>1800</v>
       </c>
-      <c r="R509" s="10"/>
-      <c r="W509" s="5" t="s">
+      <c r="R509" s="61"/>
+      <c r="W509" s="60" t="s">
         <v>541</v>
       </c>
-      <c r="X509" s="14" t="s">
+      <c r="X509" s="62" t="s">
         <v>120</v>
       </c>
-      <c r="Y509" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z509" s="5">
+      <c r="Y509" s="63">
+        <v>0</v>
+      </c>
+      <c r="Z509" s="60">
         <v>2552233600</v>
       </c>
-      <c r="AB509" s="5" t="s">
+      <c r="AB509" s="60" t="s">
         <v>89</v>
       </c>
-      <c r="AC509" s="5" t="s">
+      <c r="AC509" s="60" t="s">
         <v>1884</v>
       </c>
-      <c r="AD509" s="10" t="s">
+      <c r="AD509" s="61" t="s">
         <v>1885</v>
       </c>
-      <c r="AH509" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI509" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="510" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A510" s="5">
+      <c r="AH509" s="60">
+        <v>1</v>
+      </c>
+      <c r="AI509" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="510" spans="1:39" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A510" s="60">
         <v>509</v>
       </c>
-      <c r="B510" s="5">
+      <c r="B510" s="60">
         <v>10426</v>
       </c>
-      <c r="F510" s="5">
-        <v>1</v>
-      </c>
-      <c r="G510" s="5" t="s">
+      <c r="F510" s="60">
+        <v>1</v>
+      </c>
+      <c r="G510" s="60" t="s">
         <v>1886</v>
       </c>
-      <c r="J510" s="5" t="s">
+      <c r="J510" s="60" t="s">
         <v>1887</v>
       </c>
-      <c r="L510" s="5">
+      <c r="L510" s="60">
         <v>-4</v>
       </c>
-      <c r="M510" s="5">
-        <v>1</v>
-      </c>
-      <c r="N510" s="5">
-        <v>0</v>
-      </c>
-      <c r="O510" s="5" t="s">
+      <c r="M510" s="60">
+        <v>1</v>
+      </c>
+      <c r="N510" s="60">
+        <v>0</v>
+      </c>
+      <c r="O510" s="60" t="s">
         <v>112</v>
       </c>
-      <c r="P510" s="5">
+      <c r="P510" s="60">
         <v>4800</v>
       </c>
-      <c r="R510" s="10"/>
-      <c r="W510" s="5" t="s">
+      <c r="R510" s="61"/>
+      <c r="W510" s="60" t="s">
         <v>541</v>
       </c>
-      <c r="X510" s="14" t="s">
+      <c r="X510" s="62" t="s">
         <v>120</v>
       </c>
-      <c r="Y510" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z510" s="5">
+      <c r="Y510" s="63">
+        <v>0</v>
+      </c>
+      <c r="Z510" s="60">
         <v>2552233600</v>
       </c>
-      <c r="AB510" s="5" t="s">
+      <c r="AB510" s="60" t="s">
         <v>89</v>
       </c>
-      <c r="AC510" s="5" t="s">
+      <c r="AC510" s="60" t="s">
         <v>1888</v>
       </c>
-      <c r="AD510" s="10" t="s">
+      <c r="AD510" s="61" t="s">
         <v>1889</v>
       </c>
-      <c r="AH510" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI510" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="511" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A511" s="5">
+      <c r="AH510" s="60">
+        <v>1</v>
+      </c>
+      <c r="AI510" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="511" spans="1:39" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A511" s="60">
         <v>510</v>
       </c>
-      <c r="B511" s="5">
+      <c r="B511" s="60">
         <v>10427</v>
       </c>
-      <c r="F511" s="5">
-        <v>1</v>
-      </c>
-      <c r="G511" s="5" t="s">
+      <c r="F511" s="60">
+        <v>1</v>
+      </c>
+      <c r="G511" s="60" t="s">
         <v>1890</v>
       </c>
-      <c r="J511" s="5" t="s">
+      <c r="J511" s="60" t="s">
         <v>1891</v>
       </c>
-      <c r="L511" s="5">
+      <c r="L511" s="60">
         <v>-4</v>
       </c>
-      <c r="M511" s="5">
-        <v>1</v>
-      </c>
-      <c r="N511" s="5">
-        <v>0</v>
-      </c>
-      <c r="O511" s="5" t="s">
+      <c r="M511" s="60">
+        <v>1</v>
+      </c>
+      <c r="N511" s="60">
+        <v>0</v>
+      </c>
+      <c r="O511" s="60" t="s">
         <v>112</v>
       </c>
-      <c r="P511" s="5">
+      <c r="P511" s="60">
         <v>9800</v>
       </c>
-      <c r="R511" s="10"/>
-      <c r="W511" s="5" t="s">
+      <c r="R511" s="61"/>
+      <c r="W511" s="60" t="s">
         <v>541</v>
       </c>
-      <c r="X511" s="14" t="s">
+      <c r="X511" s="62" t="s">
         <v>120</v>
       </c>
-      <c r="Y511" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z511" s="5">
+      <c r="Y511" s="63">
+        <v>0</v>
+      </c>
+      <c r="Z511" s="60">
         <v>2552233600</v>
       </c>
-      <c r="AB511" s="5" t="s">
+      <c r="AB511" s="60" t="s">
         <v>89</v>
       </c>
-      <c r="AC511" s="5" t="s">
+      <c r="AC511" s="60" t="s">
         <v>1892</v>
       </c>
-      <c r="AD511" s="10" t="s">
+      <c r="AD511" s="61" t="s">
         <v>1893</v>
       </c>
-      <c r="AH511" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI511" s="5">
+      <c r="AH511" s="60">
+        <v>1</v>
+      </c>
+      <c r="AI511" s="60">
         <v>1</v>
       </c>
     </row>
@@ -43608,7 +43647,7 @@
         <v>10428</v>
       </c>
       <c r="F512" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G512" s="5" t="s">
         <v>1894</v>
@@ -43676,7 +43715,7 @@
         <v>10429</v>
       </c>
       <c r="F513" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G513" s="5" t="s">
         <v>1894</v>
@@ -43744,7 +43783,7 @@
         <v>10430</v>
       </c>
       <c r="F514" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G514" s="5" t="s">
         <v>1894</v>
@@ -43812,7 +43851,7 @@
         <v>10431</v>
       </c>
       <c r="F515" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G515" s="5" t="s">
         <v>1894</v>
@@ -43880,7 +43919,7 @@
         <v>10432</v>
       </c>
       <c r="F516" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G516" s="5" t="s">
         <v>1894</v>
@@ -43948,7 +43987,7 @@
         <v>10433</v>
       </c>
       <c r="F517" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G517" s="5" t="s">
         <v>1894</v>
@@ -44016,7 +44055,7 @@
         <v>10434</v>
       </c>
       <c r="F518" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G518" s="5" t="s">
         <v>1894</v>
@@ -44084,7 +44123,7 @@
         <v>10435</v>
       </c>
       <c r="F519" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G519" s="5" t="s">
         <v>1894</v>
@@ -45034,7 +45073,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="F60" sqref="F60"/>
     </sheetView>
   </sheetViews>

--- a/config_1.19/shoping_config_cjj.xlsx
+++ b/config_1.19/shoping_config_cjj.xlsx
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4344" uniqueCount="1974">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4344" uniqueCount="1977">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -7980,25 +7980,13 @@
     <t>"jing_bi","prop_qdlb_cjq","prop_3d_fish_doubled",</t>
   </si>
   <si>
-    <t>49800000,50,15,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>"2020万","抽奖券*30","双倍奖励*10",</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>19800000,30,10,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>"990万","抽奖券*20","双倍奖励*5",</t>
   </si>
   <si>
-    <t>9800000,20,5,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>"483万","抽奖券*3","双倍奖励*3",</t>
   </si>
   <si>
@@ -8006,445 +7994,467 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>4800000,10,3,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>"200万","抽奖券*4","双倍奖励*2",</t>
   </si>
   <si>
+    <t>欢乐庆典-捕鱼</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"60万","抽奖券*1","双倍奖励*1",</t>
+  </si>
+  <si>
+    <t>欢乐庆典-冲金鸡</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"5180万","抽奖券*50","太阳*20",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_qdlb_cjq","prop_guess_apple_bet_2",</t>
+  </si>
+  <si>
+    <t>"2020万","抽奖券*30","太阳*10",</t>
+  </si>
+  <si>
+    <t>欢乐庆典-冲金鸡</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"990万","抽奖券*20","太阳*2",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"483万","抽奖券*3","水滴*6",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_qdlb_cjq","prop_guess_apple_bet_1",</t>
+  </si>
+  <si>
+    <t>"200万","抽奖券*4","水滴*2",</t>
+  </si>
+  <si>
+    <t>"60万","抽奖券*1","水滴*1",</t>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "actp_no_cjj_gej_exchange" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "actp_cjj_gej_exchange" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>幸运金币18元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"随机获得180万-500万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{1850000,1950000,100,},</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1800000,5000000</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>幸运金币48元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"随机获得480万-1500万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{5000000,5200000,100,},</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4800000,15000000</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>幸运金币98元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"随机获得980万-3000万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{10000000,10800000,100,},</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9800000,30000000</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐礼包-欢乐捕鱼</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"5020万金币","双倍奖励卡*10","传说宝箱*15",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_3d_fish_doubled","prop_hqjnh_csbox",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>50200000,10,15,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>86400,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"2010万金币","双倍奖励卡*6","传说宝箱*5",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>20100000,6,5,</t>
+  </si>
+  <si>
+    <t>"996万金币","双倍奖励卡*4","史诗宝箱*3",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_3d_fish_doubled","prop_hqjnh_ssbox",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9960000,4,3,</t>
+  </si>
+  <si>
+    <t>"488万金币","双倍奖励卡*2","稀有宝箱*3",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_3d_fish_doubled","prop_hqjnh_xybox",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4880000,2,3,</t>
+  </si>
+  <si>
+    <t>欢乐礼包-冲金鸡</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"5000万金币","太阳*10","传说宝箱*15",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_guess_apple_bet_2","prop_hqjnh_csbox",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>50000000,4,15,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"2000万金币","太阳*6","传说宝箱*5",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>20000000,2,5,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"996万金币","水滴*4","史诗宝箱*3",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_guess_apple_bet_1","prop_hqjnh_ssbox",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9960000,8,3,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_guess_apple_bet_1","prop_hqjnh_xybox",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4880000,4,3,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "hqjnh_046_nor_hllb" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "hqjnh_046_cjj_hllb" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>周卡</t>
+  </si>
+  <si>
+    <t>冲金鸡</t>
+  </si>
+  <si>
+    <t>1000000,1</t>
+  </si>
+  <si>
+    <t>{valid_time=604800},</t>
+  </si>
+  <si>
+    <t>604800,1,0</t>
+  </si>
+  <si>
+    <t>"488万金币","水滴*2","稀有宝箱*3",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"100万金币","首次救济金为6万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","obj_week_card",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭字礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>新玩家、免费、小额</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"60万金币","2万小游戏币","恭字符*1",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin","prop_fclb_gong",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>60000,20000,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>86400,3,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>喜字礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"100万金币","3.8万小游戏币","喜字符*1",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin","prop_fclb_xi",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin","prop_fclb_xi",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000000,38000,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>发字礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"180万金币","5万小游戏币","发字符*1",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin","prop_fclb_fa",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1800000,50000,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1800000,50000,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>财字礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"480万金币","10万小游戏币","财字符*1",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin","prop_fclb_cai",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin","prop_fclb_cai",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4800000,100000,1,</t>
+  </si>
+  <si>
+    <t>v1-v7</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>v1-v7</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"180万金币","5万小游戏币","恭字符*1",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin","prop_fclb_gong",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"480万金币","10万小游戏币","喜字符*1",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4800000,100000,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4800000,100000,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"980万金币","20万小游戏币","发字符*1",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9800000,200000,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9800000,200000,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1980万金币","40万小游戏币","财字符*1",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>19800000,400000,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>v8-v12</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>v8-v12</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"480万金币","10万小游戏币","恭字符*1",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"980万金币","20万小游戏币","喜字符*1",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1980万金币","40万小游戏币","发字符*1",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>19800000,400000,1,</t>
+  </si>
+  <si>
+    <t>"4980万金币","80万小游戏币","财字符*1",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>49800000,800000,1,</t>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "fclb_free_001" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "fclb_v1v7_001" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "fclb_v8v12_001" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>51800000,50,15,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200000,30,10,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9900000,20,5,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4830000,10,3,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>2000000,4,2,</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>600000,1,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>51800000,50,20,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200000,30,10,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9900000,20,2,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4830000,10,6,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>2000000,4,2,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>欢乐庆典-捕鱼</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"60万","抽奖券*1","双倍奖励*1",</t>
   </si>
   <si>
     <t>600000,1,1,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>欢乐庆典-冲金鸡</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"5180万","抽奖券*50","太阳*20",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_qdlb_cjq","prop_guess_apple_bet_2",</t>
-  </si>
-  <si>
-    <t>49800000,50,20,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"2020万","抽奖券*30","太阳*10",</t>
-  </si>
-  <si>
-    <t>欢乐庆典-冲金鸡</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"990万","抽奖券*20","太阳*2",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>9800000,20,2,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"483万","抽奖券*3","水滴*6",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_qdlb_cjq","prop_guess_apple_bet_1",</t>
-  </si>
-  <si>
-    <t>4800000,10,6,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"200万","抽奖券*4","水滴*2",</t>
-  </si>
-  <si>
-    <t>"60万","抽奖券*1","水滴*1",</t>
-  </si>
-  <si>
-    <t>600000,1,1,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{type="permission_class",class_value = "actp_no_cjj_gej_exchange" }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{type="permission_class",class_value = "actp_cjj_gej_exchange" }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>幸运金币18元</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"随机获得180万-500万金币",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{1850000,1950000,100,},</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>1800000,5000000</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>幸运金币48元</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"随机获得480万-1500万金币",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{5000000,5200000,100,},</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>4800000,15000000</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>幸运金币98元</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"随机获得980万-3000万金币",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{10000000,10800000,100,},</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>9800000,30000000</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>欢乐礼包</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>欢乐礼包-欢乐捕鱼</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"5020万金币","双倍奖励卡*10","传说宝箱*15",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>gift_bag</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_3d_fish_doubled","prop_hqjnh_csbox",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>50200000,10,15,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>86400,1,0</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"2010万金币","双倍奖励卡*6","传说宝箱*5",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>20100000,6,5,</t>
-  </si>
-  <si>
-    <t>"996万金币","双倍奖励卡*4","史诗宝箱*3",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_3d_fish_doubled","prop_hqjnh_ssbox",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>9960000,4,3,</t>
-  </si>
-  <si>
-    <t>"488万金币","双倍奖励卡*2","稀有宝箱*3",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_3d_fish_doubled","prop_hqjnh_xybox",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>4880000,2,3,</t>
-  </si>
-  <si>
-    <t>欢乐礼包-冲金鸡</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"5000万金币","太阳*10","传说宝箱*15",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_guess_apple_bet_2","prop_hqjnh_csbox",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>50000000,4,15,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"2000万金币","太阳*6","传说宝箱*5",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>20000000,2,5,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"996万金币","水滴*4","史诗宝箱*3",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_guess_apple_bet_1","prop_hqjnh_ssbox",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>9960000,8,3,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_guess_apple_bet_1","prop_hqjnh_xybox",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>4880000,4,3,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{type="permission_class",class_value = "hqjnh_046_nor_hllb" }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{type="permission_class",class_value = "hqjnh_046_cjj_hllb" }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>周卡</t>
-  </si>
-  <si>
-    <t>冲金鸡</t>
-  </si>
-  <si>
-    <t>1000000,1</t>
-  </si>
-  <si>
-    <t>{valid_time=604800},</t>
-  </si>
-  <si>
-    <t>604800,1,0</t>
-  </si>
-  <si>
-    <t>"488万金币","水滴*2","稀有宝箱*3",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"100万金币","首次救济金为6万金币",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","obj_week_card",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>恭字礼包</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>新玩家、免费、小额</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"60万金币","2万小游戏币","恭字符*1",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_tiny_game_coin","prop_fclb_gong",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>60000,20000,1,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>86400,3,0</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>喜字礼包</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"100万金币","3.8万小游戏币","喜字符*1",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_tiny_game_coin","prop_fclb_xi",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_tiny_game_coin","prop_fclb_xi",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000000,38000,1,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>发字礼包</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"180万金币","5万小游戏币","发字符*1",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_tiny_game_coin","prop_fclb_fa",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>1800000,50000,1,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>1800000,50000,1,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>财字礼包</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"480万金币","10万小游戏币","财字符*1",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_tiny_game_coin","prop_fclb_cai",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_tiny_game_coin","prop_fclb_cai",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>4800000,100000,1,</t>
-  </si>
-  <si>
-    <t>v1-v7</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>v1-v7</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"180万金币","5万小游戏币","恭字符*1",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_tiny_game_coin","prop_fclb_gong",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"480万金币","10万小游戏币","喜字符*1",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>4800000,100000,1,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>4800000,100000,1,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"980万金币","20万小游戏币","发字符*1",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>9800000,200000,1,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>9800000,200000,1,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"1980万金币","40万小游戏币","财字符*1",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>19800000,400000,1,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>v8-v12</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>v8-v12</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"480万金币","10万小游戏币","恭字符*1",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"980万金币","20万小游戏币","喜字符*1",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"1980万金币","40万小游戏币","发字符*1",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>19800000,400000,1,</t>
-  </si>
-  <si>
-    <t>"4980万金币","80万小游戏币","财字符*1",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>49800000,800000,1,</t>
-  </si>
-  <si>
-    <t>{type="permission_class",class_value = "fclb_free_001" }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{type="permission_class",class_value = "fclb_v1v7_001" }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{type="permission_class",class_value = "fclb_v8v12_001" }</t>
+  </si>
+  <si>
+    <t>86400,9999,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>86400,9999,0</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -8632,7 +8642,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -8823,6 +8833,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -11259,10 +11278,10 @@
   <dimension ref="A1:AN532"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H505" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="U478" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A511" sqref="A511"/>
+      <selection pane="bottomRight" activeCell="W497" sqref="W497:W508"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -42680,11 +42699,11 @@
       <c r="Q497" s="5" t="s">
         <v>1851</v>
       </c>
-      <c r="R497" s="10" t="s">
-        <v>1852</v>
-      </c>
-      <c r="W497" s="5" t="s">
-        <v>540</v>
+      <c r="R497" s="64" t="s">
+        <v>1963</v>
+      </c>
+      <c r="W497" s="66" t="s">
+        <v>1975</v>
       </c>
       <c r="X497" s="5">
         <v>99999999</v>
@@ -42728,7 +42747,7 @@
         <v>1848</v>
       </c>
       <c r="J498" s="5" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="L498" s="5">
         <v>-31</v>
@@ -42748,11 +42767,11 @@
       <c r="Q498" s="5" t="s">
         <v>1851</v>
       </c>
-      <c r="R498" s="10" t="s">
-        <v>1854</v>
-      </c>
-      <c r="W498" s="5" t="s">
-        <v>540</v>
+      <c r="R498" s="64" t="s">
+        <v>1964</v>
+      </c>
+      <c r="W498" s="66" t="s">
+        <v>1976</v>
       </c>
       <c r="X498" s="5">
         <v>99999999</v>
@@ -42796,7 +42815,7 @@
         <v>1848</v>
       </c>
       <c r="J499" s="5" t="s">
-        <v>1855</v>
+        <v>1853</v>
       </c>
       <c r="L499" s="5">
         <v>-31</v>
@@ -42816,11 +42835,11 @@
       <c r="Q499" s="5" t="s">
         <v>1851</v>
       </c>
-      <c r="R499" s="10" t="s">
-        <v>1856</v>
-      </c>
-      <c r="W499" s="5" t="s">
-        <v>540</v>
+      <c r="R499" s="64" t="s">
+        <v>1965</v>
+      </c>
+      <c r="W499" s="66" t="s">
+        <v>1976</v>
       </c>
       <c r="X499" s="5">
         <v>99999999</v>
@@ -42864,7 +42883,7 @@
         <v>1848</v>
       </c>
       <c r="J500" s="5" t="s">
-        <v>1857</v>
+        <v>1854</v>
       </c>
       <c r="L500" s="5">
         <v>-31</v>
@@ -42876,7 +42895,7 @@
         <v>0</v>
       </c>
       <c r="O500" s="5" t="s">
-        <v>1858</v>
+        <v>1855</v>
       </c>
       <c r="P500" s="5">
         <v>4800</v>
@@ -42884,11 +42903,11 @@
       <c r="Q500" s="5" t="s">
         <v>1851</v>
       </c>
-      <c r="R500" s="10" t="s">
-        <v>1859</v>
-      </c>
-      <c r="W500" s="5" t="s">
-        <v>540</v>
+      <c r="R500" s="64" t="s">
+        <v>1966</v>
+      </c>
+      <c r="W500" s="66" t="s">
+        <v>1976</v>
       </c>
       <c r="X500" s="5">
         <v>99999999</v>
@@ -42932,7 +42951,7 @@
         <v>1848</v>
       </c>
       <c r="J501" s="5" t="s">
-        <v>1860</v>
+        <v>1856</v>
       </c>
       <c r="L501" s="5">
         <v>-31</v>
@@ -42952,11 +42971,11 @@
       <c r="Q501" s="5" t="s">
         <v>1851</v>
       </c>
-      <c r="R501" s="10" t="s">
-        <v>1862</v>
-      </c>
-      <c r="W501" s="5" t="s">
-        <v>540</v>
+      <c r="R501" s="64" t="s">
+        <v>1967</v>
+      </c>
+      <c r="W501" s="66" t="s">
+        <v>1975</v>
       </c>
       <c r="X501" s="5">
         <v>99999999</v>
@@ -42997,10 +43016,10 @@
         <v>1847</v>
       </c>
       <c r="I502" s="5" t="s">
-        <v>1863</v>
+        <v>1857</v>
       </c>
       <c r="J502" s="5" t="s">
-        <v>1864</v>
+        <v>1858</v>
       </c>
       <c r="L502" s="5">
         <v>-31</v>
@@ -43020,11 +43039,11 @@
       <c r="Q502" s="5" t="s">
         <v>1851</v>
       </c>
-      <c r="R502" s="10" t="s">
-        <v>1865</v>
-      </c>
-      <c r="W502" s="5" t="s">
-        <v>540</v>
+      <c r="R502" s="64" t="s">
+        <v>1968</v>
+      </c>
+      <c r="W502" s="66" t="s">
+        <v>1975</v>
       </c>
       <c r="X502" s="5">
         <v>99999999</v>
@@ -43065,10 +43084,10 @@
         <v>1847</v>
       </c>
       <c r="I503" s="5" t="s">
-        <v>1866</v>
+        <v>1859</v>
       </c>
       <c r="J503" s="5" t="s">
-        <v>1867</v>
+        <v>1860</v>
       </c>
       <c r="L503" s="5">
         <v>-31</v>
@@ -43086,13 +43105,13 @@
         <v>49800</v>
       </c>
       <c r="Q503" s="5" t="s">
-        <v>1868</v>
-      </c>
-      <c r="R503" s="10" t="s">
-        <v>1869</v>
-      </c>
-      <c r="W503" s="5" t="s">
-        <v>540</v>
+        <v>1861</v>
+      </c>
+      <c r="R503" s="65" t="s">
+        <v>1969</v>
+      </c>
+      <c r="W503" s="66" t="s">
+        <v>1975</v>
       </c>
       <c r="X503" s="5">
         <v>99999999</v>
@@ -43133,10 +43152,10 @@
         <v>1847</v>
       </c>
       <c r="I504" s="5" t="s">
-        <v>1866</v>
+        <v>1859</v>
       </c>
       <c r="J504" s="5" t="s">
-        <v>1870</v>
+        <v>1862</v>
       </c>
       <c r="L504" s="5">
         <v>-31</v>
@@ -43154,13 +43173,13 @@
         <v>19800</v>
       </c>
       <c r="Q504" s="5" t="s">
-        <v>1868</v>
-      </c>
-      <c r="R504" s="10" t="s">
-        <v>1854</v>
-      </c>
-      <c r="W504" s="5" t="s">
-        <v>540</v>
+        <v>1861</v>
+      </c>
+      <c r="R504" s="65" t="s">
+        <v>1970</v>
+      </c>
+      <c r="W504" s="66" t="s">
+        <v>1975</v>
       </c>
       <c r="X504" s="5">
         <v>99999999</v>
@@ -43201,10 +43220,10 @@
         <v>1847</v>
       </c>
       <c r="I505" s="5" t="s">
-        <v>1871</v>
+        <v>1863</v>
       </c>
       <c r="J505" s="5" t="s">
-        <v>1872</v>
+        <v>1864</v>
       </c>
       <c r="L505" s="5">
         <v>-31</v>
@@ -43222,13 +43241,13 @@
         <v>9800</v>
       </c>
       <c r="Q505" s="5" t="s">
-        <v>1868</v>
-      </c>
-      <c r="R505" s="10" t="s">
-        <v>1873</v>
-      </c>
-      <c r="W505" s="5" t="s">
-        <v>540</v>
+        <v>1861</v>
+      </c>
+      <c r="R505" s="65" t="s">
+        <v>1971</v>
+      </c>
+      <c r="W505" s="66" t="s">
+        <v>1975</v>
       </c>
       <c r="X505" s="5">
         <v>99999999</v>
@@ -43269,10 +43288,10 @@
         <v>1846</v>
       </c>
       <c r="I506" s="5" t="s">
-        <v>1871</v>
+        <v>1863</v>
       </c>
       <c r="J506" s="5" t="s">
-        <v>1874</v>
+        <v>1865</v>
       </c>
       <c r="L506" s="5">
         <v>-31</v>
@@ -43290,13 +43309,13 @@
         <v>4800</v>
       </c>
       <c r="Q506" s="5" t="s">
-        <v>1875</v>
-      </c>
-      <c r="R506" s="10" t="s">
-        <v>1876</v>
-      </c>
-      <c r="W506" s="5" t="s">
-        <v>540</v>
+        <v>1866</v>
+      </c>
+      <c r="R506" s="65" t="s">
+        <v>1972</v>
+      </c>
+      <c r="W506" s="66" t="s">
+        <v>1975</v>
       </c>
       <c r="X506" s="5">
         <v>99999999</v>
@@ -43337,10 +43356,10 @@
         <v>1846</v>
       </c>
       <c r="I507" s="5" t="s">
-        <v>1871</v>
+        <v>1863</v>
       </c>
       <c r="J507" s="5" t="s">
-        <v>1877</v>
+        <v>1867</v>
       </c>
       <c r="L507" s="5">
         <v>-31</v>
@@ -43358,13 +43377,13 @@
         <v>2000</v>
       </c>
       <c r="Q507" s="5" t="s">
-        <v>1875</v>
-      </c>
-      <c r="R507" s="10" t="s">
-        <v>1861</v>
-      </c>
-      <c r="W507" s="5" t="s">
-        <v>540</v>
+        <v>1866</v>
+      </c>
+      <c r="R507" s="65" t="s">
+        <v>1973</v>
+      </c>
+      <c r="W507" s="66" t="s">
+        <v>1975</v>
       </c>
       <c r="X507" s="5">
         <v>99999999</v>
@@ -43405,10 +43424,10 @@
         <v>1846</v>
       </c>
       <c r="I508" s="5" t="s">
-        <v>1871</v>
+        <v>1863</v>
       </c>
       <c r="J508" s="5" t="s">
-        <v>1878</v>
+        <v>1868</v>
       </c>
       <c r="L508" s="5">
         <v>-31</v>
@@ -43426,13 +43445,13 @@
         <v>600</v>
       </c>
       <c r="Q508" s="5" t="s">
-        <v>1875</v>
-      </c>
-      <c r="R508" s="10" t="s">
-        <v>1879</v>
-      </c>
-      <c r="W508" s="5" t="s">
-        <v>540</v>
+        <v>1866</v>
+      </c>
+      <c r="R508" s="65" t="s">
+        <v>1974</v>
+      </c>
+      <c r="W508" s="66" t="s">
+        <v>1975</v>
       </c>
       <c r="X508" s="5">
         <v>99999999</v>
@@ -43470,10 +43489,10 @@
         <v>1</v>
       </c>
       <c r="G509" s="60" t="s">
-        <v>1882</v>
+        <v>1871</v>
       </c>
       <c r="J509" s="60" t="s">
-        <v>1883</v>
+        <v>1872</v>
       </c>
       <c r="L509" s="60">
         <v>-4</v>
@@ -43507,10 +43526,10 @@
         <v>89</v>
       </c>
       <c r="AC509" s="60" t="s">
-        <v>1884</v>
+        <v>1873</v>
       </c>
       <c r="AD509" s="61" t="s">
-        <v>1885</v>
+        <v>1874</v>
       </c>
       <c r="AH509" s="60">
         <v>1</v>
@@ -43530,10 +43549,10 @@
         <v>1</v>
       </c>
       <c r="G510" s="60" t="s">
-        <v>1886</v>
+        <v>1875</v>
       </c>
       <c r="J510" s="60" t="s">
-        <v>1887</v>
+        <v>1876</v>
       </c>
       <c r="L510" s="60">
         <v>-4</v>
@@ -43567,10 +43586,10 @@
         <v>89</v>
       </c>
       <c r="AC510" s="60" t="s">
-        <v>1888</v>
+        <v>1877</v>
       </c>
       <c r="AD510" s="61" t="s">
-        <v>1889</v>
+        <v>1878</v>
       </c>
       <c r="AH510" s="60">
         <v>1</v>
@@ -43590,10 +43609,10 @@
         <v>1</v>
       </c>
       <c r="G511" s="60" t="s">
-        <v>1890</v>
+        <v>1879</v>
       </c>
       <c r="J511" s="60" t="s">
-        <v>1891</v>
+        <v>1880</v>
       </c>
       <c r="L511" s="60">
         <v>-4</v>
@@ -43627,10 +43646,10 @@
         <v>89</v>
       </c>
       <c r="AC511" s="60" t="s">
-        <v>1892</v>
+        <v>1881</v>
       </c>
       <c r="AD511" s="61" t="s">
-        <v>1893</v>
+        <v>1882</v>
       </c>
       <c r="AH511" s="60">
         <v>1</v>
@@ -43650,13 +43669,13 @@
         <v>0</v>
       </c>
       <c r="G512" s="5" t="s">
-        <v>1894</v>
+        <v>1883</v>
       </c>
       <c r="I512" s="5" t="s">
-        <v>1895</v>
+        <v>1884</v>
       </c>
       <c r="J512" s="5" t="s">
-        <v>1896</v>
+        <v>1885</v>
       </c>
       <c r="L512" s="5">
         <v>-33</v>
@@ -43668,19 +43687,19 @@
         <v>0</v>
       </c>
       <c r="O512" s="5" t="s">
-        <v>1897</v>
+        <v>1886</v>
       </c>
       <c r="P512" s="5">
         <v>49800</v>
       </c>
       <c r="Q512" s="5" t="s">
-        <v>1898</v>
+        <v>1887</v>
       </c>
       <c r="R512" s="10" t="s">
-        <v>1899</v>
+        <v>1888</v>
       </c>
       <c r="W512" s="5" t="s">
-        <v>1900</v>
+        <v>1889</v>
       </c>
       <c r="X512" s="5">
         <v>99999999</v>
@@ -43718,13 +43737,13 @@
         <v>0</v>
       </c>
       <c r="G513" s="5" t="s">
-        <v>1894</v>
+        <v>1883</v>
       </c>
       <c r="I513" s="5" t="s">
-        <v>1895</v>
+        <v>1884</v>
       </c>
       <c r="J513" s="5" t="s">
-        <v>1901</v>
+        <v>1890</v>
       </c>
       <c r="L513" s="5">
         <v>-33</v>
@@ -43736,19 +43755,19 @@
         <v>0</v>
       </c>
       <c r="O513" s="5" t="s">
-        <v>1897</v>
+        <v>1886</v>
       </c>
       <c r="P513" s="5">
         <v>19800</v>
       </c>
       <c r="Q513" s="5" t="s">
-        <v>1898</v>
+        <v>1887</v>
       </c>
       <c r="R513" s="10" t="s">
-        <v>1902</v>
+        <v>1891</v>
       </c>
       <c r="W513" s="5" t="s">
-        <v>1900</v>
+        <v>1889</v>
       </c>
       <c r="X513" s="5">
         <v>99999999</v>
@@ -43786,13 +43805,13 @@
         <v>0</v>
       </c>
       <c r="G514" s="5" t="s">
-        <v>1894</v>
+        <v>1883</v>
       </c>
       <c r="I514" s="5" t="s">
-        <v>1895</v>
+        <v>1884</v>
       </c>
       <c r="J514" s="5" t="s">
-        <v>1903</v>
+        <v>1892</v>
       </c>
       <c r="L514" s="5">
         <v>-33</v>
@@ -43804,19 +43823,19 @@
         <v>0</v>
       </c>
       <c r="O514" s="5" t="s">
-        <v>1897</v>
+        <v>1886</v>
       </c>
       <c r="P514" s="5">
         <v>9800</v>
       </c>
       <c r="Q514" s="5" t="s">
-        <v>1904</v>
+        <v>1893</v>
       </c>
       <c r="R514" s="10" t="s">
-        <v>1905</v>
+        <v>1894</v>
       </c>
       <c r="W514" s="5" t="s">
-        <v>1900</v>
+        <v>1889</v>
       </c>
       <c r="X514" s="5">
         <v>99999999</v>
@@ -43854,13 +43873,13 @@
         <v>0</v>
       </c>
       <c r="G515" s="5" t="s">
-        <v>1894</v>
+        <v>1883</v>
       </c>
       <c r="I515" s="5" t="s">
+        <v>1884</v>
+      </c>
+      <c r="J515" s="5" t="s">
         <v>1895</v>
-      </c>
-      <c r="J515" s="5" t="s">
-        <v>1906</v>
       </c>
       <c r="L515" s="5">
         <v>-33</v>
@@ -43872,19 +43891,19 @@
         <v>0</v>
       </c>
       <c r="O515" s="5" t="s">
-        <v>1897</v>
+        <v>1886</v>
       </c>
       <c r="P515" s="5">
         <v>4800</v>
       </c>
       <c r="Q515" s="5" t="s">
-        <v>1907</v>
+        <v>1896</v>
       </c>
       <c r="R515" s="10" t="s">
-        <v>1908</v>
+        <v>1897</v>
       </c>
       <c r="W515" s="5" t="s">
-        <v>1900</v>
+        <v>1889</v>
       </c>
       <c r="X515" s="5">
         <v>99999999</v>
@@ -43922,13 +43941,13 @@
         <v>0</v>
       </c>
       <c r="G516" s="5" t="s">
-        <v>1894</v>
+        <v>1883</v>
       </c>
       <c r="I516" s="5" t="s">
-        <v>1909</v>
+        <v>1898</v>
       </c>
       <c r="J516" s="5" t="s">
-        <v>1910</v>
+        <v>1899</v>
       </c>
       <c r="L516" s="5">
         <v>-33</v>
@@ -43940,19 +43959,19 @@
         <v>0</v>
       </c>
       <c r="O516" s="5" t="s">
-        <v>1897</v>
+        <v>1886</v>
       </c>
       <c r="P516" s="5">
         <v>49800</v>
       </c>
       <c r="Q516" s="5" t="s">
-        <v>1911</v>
+        <v>1900</v>
       </c>
       <c r="R516" s="10" t="s">
-        <v>1912</v>
+        <v>1901</v>
       </c>
       <c r="W516" s="5" t="s">
-        <v>1900</v>
+        <v>1889</v>
       </c>
       <c r="X516" s="5">
         <v>99999999</v>
@@ -43990,13 +44009,13 @@
         <v>0</v>
       </c>
       <c r="G517" s="5" t="s">
-        <v>1894</v>
+        <v>1883</v>
       </c>
       <c r="I517" s="5" t="s">
-        <v>1909</v>
+        <v>1898</v>
       </c>
       <c r="J517" s="5" t="s">
-        <v>1913</v>
+        <v>1902</v>
       </c>
       <c r="L517" s="5">
         <v>-33</v>
@@ -44008,19 +44027,19 @@
         <v>0</v>
       </c>
       <c r="O517" s="5" t="s">
-        <v>1897</v>
+        <v>1886</v>
       </c>
       <c r="P517" s="5">
         <v>19800</v>
       </c>
       <c r="Q517" s="5" t="s">
-        <v>1911</v>
+        <v>1900</v>
       </c>
       <c r="R517" s="10" t="s">
-        <v>1914</v>
+        <v>1903</v>
       </c>
       <c r="W517" s="5" t="s">
-        <v>1900</v>
+        <v>1889</v>
       </c>
       <c r="X517" s="5">
         <v>99999999</v>
@@ -44058,13 +44077,13 @@
         <v>0</v>
       </c>
       <c r="G518" s="5" t="s">
-        <v>1894</v>
+        <v>1883</v>
       </c>
       <c r="I518" s="5" t="s">
-        <v>1909</v>
+        <v>1898</v>
       </c>
       <c r="J518" s="5" t="s">
-        <v>1915</v>
+        <v>1904</v>
       </c>
       <c r="L518" s="5">
         <v>-33</v>
@@ -44076,19 +44095,19 @@
         <v>0</v>
       </c>
       <c r="O518" s="5" t="s">
-        <v>1897</v>
+        <v>1886</v>
       </c>
       <c r="P518" s="5">
         <v>9800</v>
       </c>
       <c r="Q518" s="5" t="s">
-        <v>1916</v>
+        <v>1905</v>
       </c>
       <c r="R518" s="10" t="s">
-        <v>1917</v>
+        <v>1906</v>
       </c>
       <c r="W518" s="5" t="s">
-        <v>1900</v>
+        <v>1889</v>
       </c>
       <c r="X518" s="5">
         <v>99999999</v>
@@ -44126,13 +44145,13 @@
         <v>0</v>
       </c>
       <c r="G519" s="5" t="s">
-        <v>1894</v>
+        <v>1883</v>
       </c>
       <c r="I519" s="5" t="s">
-        <v>1909</v>
+        <v>1898</v>
       </c>
       <c r="J519" s="5" t="s">
-        <v>1927</v>
+        <v>1916</v>
       </c>
       <c r="L519" s="5">
         <v>-33</v>
@@ -44144,19 +44163,19 @@
         <v>0</v>
       </c>
       <c r="O519" s="5" t="s">
-        <v>1897</v>
+        <v>1886</v>
       </c>
       <c r="P519" s="5">
         <v>4800</v>
       </c>
       <c r="Q519" s="5" t="s">
-        <v>1918</v>
+        <v>1907</v>
       </c>
       <c r="R519" s="10" t="s">
-        <v>1919</v>
+        <v>1908</v>
       </c>
       <c r="W519" s="5" t="s">
-        <v>1900</v>
+        <v>1889</v>
       </c>
       <c r="X519" s="5">
         <v>99999999</v>
@@ -44194,13 +44213,13 @@
         <v>1</v>
       </c>
       <c r="G520" s="5" t="s">
-        <v>1922</v>
+        <v>1911</v>
       </c>
       <c r="I520" s="5" t="s">
-        <v>1923</v>
+        <v>1912</v>
       </c>
       <c r="J520" s="5" t="s">
-        <v>1928</v>
+        <v>1917</v>
       </c>
       <c r="L520" s="5">
         <v>-23</v>
@@ -44218,16 +44237,16 @@
         <v>1000</v>
       </c>
       <c r="Q520" s="5" t="s">
-        <v>1929</v>
+        <v>1918</v>
       </c>
       <c r="R520" s="10" t="s">
-        <v>1924</v>
+        <v>1913</v>
       </c>
       <c r="S520" s="5" t="s">
-        <v>1925</v>
+        <v>1914</v>
       </c>
       <c r="W520" s="5" t="s">
-        <v>1926</v>
+        <v>1915</v>
       </c>
       <c r="X520" s="5">
         <v>99999999</v>
@@ -44256,13 +44275,13 @@
         <v>1</v>
       </c>
       <c r="G521" s="51" t="s">
-        <v>1930</v>
+        <v>1919</v>
       </c>
       <c r="I521" s="51" t="s">
-        <v>1931</v>
+        <v>1920</v>
       </c>
       <c r="J521" s="51" t="s">
-        <v>1932</v>
+        <v>1921</v>
       </c>
       <c r="L521" s="51">
         <v>-33</v>
@@ -44280,13 +44299,13 @@
         <v>600</v>
       </c>
       <c r="Q521" s="51" t="s">
-        <v>1933</v>
+        <v>1922</v>
       </c>
       <c r="R521" s="52" t="s">
-        <v>1934</v>
+        <v>1923</v>
       </c>
       <c r="W521" s="51" t="s">
-        <v>1935</v>
+        <v>1924</v>
       </c>
       <c r="X521" s="51">
         <v>99999999</v>
@@ -44324,13 +44343,13 @@
         <v>1</v>
       </c>
       <c r="G522" s="51" t="s">
-        <v>1936</v>
+        <v>1925</v>
       </c>
       <c r="I522" s="51" t="s">
-        <v>1931</v>
+        <v>1920</v>
       </c>
       <c r="J522" s="51" t="s">
-        <v>1937</v>
+        <v>1926</v>
       </c>
       <c r="L522" s="51">
         <v>-33</v>
@@ -44348,10 +44367,10 @@
         <v>1000</v>
       </c>
       <c r="Q522" s="51" t="s">
-        <v>1939</v>
+        <v>1928</v>
       </c>
       <c r="R522" s="52" t="s">
-        <v>1940</v>
+        <v>1929</v>
       </c>
       <c r="W522" s="51" t="s">
         <v>1063</v>
@@ -44392,13 +44411,13 @@
         <v>1</v>
       </c>
       <c r="G523" s="51" t="s">
-        <v>1941</v>
+        <v>1930</v>
       </c>
       <c r="I523" s="51" t="s">
+        <v>1920</v>
+      </c>
+      <c r="J523" s="51" t="s">
         <v>1931</v>
-      </c>
-      <c r="J523" s="51" t="s">
-        <v>1942</v>
       </c>
       <c r="L523" s="51">
         <v>-33</v>
@@ -44416,10 +44435,10 @@
         <v>1800</v>
       </c>
       <c r="Q523" s="51" t="s">
-        <v>1943</v>
+        <v>1932</v>
       </c>
       <c r="R523" s="52" t="s">
-        <v>1945</v>
+        <v>1934</v>
       </c>
       <c r="W523" s="51" t="s">
         <v>1063</v>
@@ -44460,13 +44479,13 @@
         <v>1</v>
       </c>
       <c r="G524" s="51" t="s">
-        <v>1946</v>
+        <v>1935</v>
       </c>
       <c r="I524" s="51" t="s">
-        <v>1931</v>
+        <v>1920</v>
       </c>
       <c r="J524" s="51" t="s">
-        <v>1947</v>
+        <v>1936</v>
       </c>
       <c r="L524" s="51">
         <v>-33</v>
@@ -44484,10 +44503,10 @@
         <v>4800</v>
       </c>
       <c r="Q524" s="51" t="s">
-        <v>1949</v>
+        <v>1938</v>
       </c>
       <c r="R524" s="52" t="s">
-        <v>1950</v>
+        <v>1939</v>
       </c>
       <c r="W524" s="51" t="s">
         <v>1063</v>
@@ -44528,13 +44547,13 @@
         <v>1</v>
       </c>
       <c r="G525" s="45" t="s">
-        <v>1930</v>
+        <v>1919</v>
       </c>
       <c r="I525" s="45" t="s">
-        <v>1952</v>
+        <v>1941</v>
       </c>
       <c r="J525" s="45" t="s">
-        <v>1953</v>
+        <v>1942</v>
       </c>
       <c r="L525" s="45">
         <v>-33</v>
@@ -44552,10 +44571,10 @@
         <v>1800</v>
       </c>
       <c r="Q525" s="45" t="s">
-        <v>1954</v>
+        <v>1943</v>
       </c>
       <c r="R525" s="46" t="s">
-        <v>1944</v>
+        <v>1933</v>
       </c>
       <c r="W525" s="45" t="s">
         <v>1063</v>
@@ -44596,13 +44615,13 @@
         <v>1</v>
       </c>
       <c r="G526" s="45" t="s">
-        <v>1936</v>
+        <v>1925</v>
       </c>
       <c r="I526" s="45" t="s">
-        <v>1952</v>
+        <v>1941</v>
       </c>
       <c r="J526" s="45" t="s">
-        <v>1955</v>
+        <v>1944</v>
       </c>
       <c r="L526" s="45">
         <v>-33</v>
@@ -44620,10 +44639,10 @@
         <v>4800</v>
       </c>
       <c r="Q526" s="45" t="s">
-        <v>1938</v>
+        <v>1927</v>
       </c>
       <c r="R526" s="46" t="s">
-        <v>1957</v>
+        <v>1946</v>
       </c>
       <c r="W526" s="45" t="s">
         <v>1063</v>
@@ -44664,13 +44683,13 @@
         <v>1</v>
       </c>
       <c r="G527" s="45" t="s">
+        <v>1930</v>
+      </c>
+      <c r="I527" s="45" t="s">
         <v>1941</v>
       </c>
-      <c r="I527" s="45" t="s">
-        <v>1952</v>
-      </c>
       <c r="J527" s="45" t="s">
-        <v>1958</v>
+        <v>1947</v>
       </c>
       <c r="L527" s="45">
         <v>-33</v>
@@ -44688,10 +44707,10 @@
         <v>9800</v>
       </c>
       <c r="Q527" s="45" t="s">
-        <v>1943</v>
+        <v>1932</v>
       </c>
       <c r="R527" s="46" t="s">
-        <v>1960</v>
+        <v>1949</v>
       </c>
       <c r="W527" s="45" t="s">
         <v>1063</v>
@@ -44732,13 +44751,13 @@
         <v>1</v>
       </c>
       <c r="G528" s="45" t="s">
-        <v>1946</v>
+        <v>1935</v>
       </c>
       <c r="I528" s="45" t="s">
-        <v>1951</v>
+        <v>1940</v>
       </c>
       <c r="J528" s="45" t="s">
-        <v>1961</v>
+        <v>1950</v>
       </c>
       <c r="L528" s="45">
         <v>-33</v>
@@ -44756,10 +44775,10 @@
         <v>19800</v>
       </c>
       <c r="Q528" s="45" t="s">
-        <v>1949</v>
+        <v>1938</v>
       </c>
       <c r="R528" s="46" t="s">
-        <v>1962</v>
+        <v>1951</v>
       </c>
       <c r="W528" s="45" t="s">
         <v>1063</v>
@@ -44800,13 +44819,13 @@
         <v>1</v>
       </c>
       <c r="G529" s="51" t="s">
-        <v>1930</v>
+        <v>1919</v>
       </c>
       <c r="I529" s="51" t="s">
-        <v>1964</v>
+        <v>1953</v>
       </c>
       <c r="J529" s="51" t="s">
-        <v>1965</v>
+        <v>1954</v>
       </c>
       <c r="L529" s="51">
         <v>-33</v>
@@ -44824,10 +44843,10 @@
         <v>4800</v>
       </c>
       <c r="Q529" s="51" t="s">
-        <v>1954</v>
+        <v>1943</v>
       </c>
       <c r="R529" s="52" t="s">
-        <v>1956</v>
+        <v>1945</v>
       </c>
       <c r="W529" s="51" t="s">
         <v>1063</v>
@@ -44868,13 +44887,13 @@
         <v>1</v>
       </c>
       <c r="G530" s="51" t="s">
-        <v>1936</v>
+        <v>1925</v>
       </c>
       <c r="I530" s="51" t="s">
-        <v>1964</v>
+        <v>1953</v>
       </c>
       <c r="J530" s="51" t="s">
-        <v>1966</v>
+        <v>1955</v>
       </c>
       <c r="L530" s="51">
         <v>-33</v>
@@ -44892,10 +44911,10 @@
         <v>9800</v>
       </c>
       <c r="Q530" s="51" t="s">
-        <v>1939</v>
+        <v>1928</v>
       </c>
       <c r="R530" s="52" t="s">
-        <v>1959</v>
+        <v>1948</v>
       </c>
       <c r="W530" s="51" t="s">
         <v>1063</v>
@@ -44936,13 +44955,13 @@
         <v>1</v>
       </c>
       <c r="G531" s="51" t="s">
-        <v>1941</v>
+        <v>1930</v>
       </c>
       <c r="I531" s="51" t="s">
-        <v>1964</v>
+        <v>1953</v>
       </c>
       <c r="J531" s="51" t="s">
-        <v>1967</v>
+        <v>1956</v>
       </c>
       <c r="L531" s="51">
         <v>-33</v>
@@ -44960,10 +44979,10 @@
         <v>19800</v>
       </c>
       <c r="Q531" s="51" t="s">
-        <v>1943</v>
+        <v>1932</v>
       </c>
       <c r="R531" s="52" t="s">
-        <v>1968</v>
+        <v>1957</v>
       </c>
       <c r="W531" s="51" t="s">
         <v>1063</v>
@@ -45004,13 +45023,13 @@
         <v>1</v>
       </c>
       <c r="G532" s="51" t="s">
-        <v>1946</v>
+        <v>1935</v>
       </c>
       <c r="I532" s="51" t="s">
-        <v>1963</v>
+        <v>1952</v>
       </c>
       <c r="J532" s="51" t="s">
-        <v>1969</v>
+        <v>1958</v>
       </c>
       <c r="L532" s="51">
         <v>-33</v>
@@ -45028,10 +45047,10 @@
         <v>49800</v>
       </c>
       <c r="Q532" s="51" t="s">
-        <v>1948</v>
+        <v>1937</v>
       </c>
       <c r="R532" s="52" t="s">
-        <v>1970</v>
+        <v>1959</v>
       </c>
       <c r="W532" s="51" t="s">
         <v>1063</v>
@@ -46031,7 +46050,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="18" t="s">
-        <v>1880</v>
+        <v>1869</v>
       </c>
       <c r="C67" s="12">
         <v>1</v>
@@ -46045,7 +46064,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="18" t="s">
-        <v>1881</v>
+        <v>1870</v>
       </c>
       <c r="C68" s="12">
         <v>1</v>
@@ -46059,7 +46078,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="18" t="s">
-        <v>1920</v>
+        <v>1909</v>
       </c>
       <c r="C69" s="12">
         <v>1</v>
@@ -46073,7 +46092,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="18" t="s">
-        <v>1921</v>
+        <v>1910</v>
       </c>
       <c r="C70" s="12">
         <v>1</v>
@@ -46087,7 +46106,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="53" t="s">
-        <v>1971</v>
+        <v>1960</v>
       </c>
       <c r="C71" s="54">
         <v>1</v>
@@ -46101,7 +46120,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="53" t="s">
-        <v>1972</v>
+        <v>1961</v>
       </c>
       <c r="C72" s="54">
         <v>1</v>
@@ -46115,7 +46134,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="53" t="s">
-        <v>1973</v>
+        <v>1962</v>
       </c>
       <c r="C73" s="54">
         <v>1</v>
